--- a/tests/test1/d30/N, 0.0.xlsx
+++ b/tests/test1/d30/N, 0.0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0005890999999991209</v>
+        <v>0.0007656999999952063</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0005299000000036358</v>
+        <v>0.00131870000000589</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.000561699999998666</v>
+        <v>0.0006143999999963512</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.002074700000001428</v>
+        <v>0.001264200000001381</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003200000000020964</v>
+        <v>0.0003827000000029557</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003474000000025512</v>
+        <v>0.000335199999994984</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.000328299999999615</v>
+        <v>0.0003451999999981581</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003251000000048521</v>
+        <v>0.0003343000000057827</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005308999999940056</v>
+        <v>0.0004731999999947334</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005572999999969852</v>
+        <v>0.0003179000000059773</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003340000000022769</v>
+        <v>0.0003275999999985402</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.000320100000003265</v>
+        <v>0.001146300000002043</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005400000000008731</v>
+        <v>0.0003625000000013756</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003693999999967446</v>
+        <v>0.0004765000000048758</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0005730000000028213</v>
+        <v>0.0003405000000000769</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003482999999988579</v>
+        <v>0.0003943000000035113</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003367999999994709</v>
+        <v>0.0003298999999969965</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0007820999999950118</v>
+        <v>0.0005317999999974177</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003308999999944717</v>
+        <v>0.0003550000000061004</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.001487199999999689</v>
+        <v>0.0003382000000016205</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0004170999999999481</v>
+        <v>0.0006534999999985303</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0003363000000007332</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0003336999999987711</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003191000000057898</v>
+        <v>0.00182840000000084</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003402999999977396</v>
+        <v>0.000568199999996466</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0007306999999983077</v>
+        <v>0.0003347999999974149</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003303000000016709</v>
+        <v>0.0003492999999963331</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0005200999999956935</v>
+        <v>0.0005282999999991489</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0005148999999988746</v>
+        <v>0.0003244000000037772</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003389999999967586</v>
+        <v>0.0003213999999971406</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003716000000011377</v>
+        <v>0.0003181999999952723</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003321000000013896</v>
+        <v>0.0005657000000027779</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003268999999974653</v>
+        <v>0.0003847000000050116</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0003355999999996584</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003029999999952793</v>
+        <v>0.0003177000000036401</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.0002990999999994415</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0003500000000045134</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002877000000012231</v>
+        <v>0.0004015999999964492</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0003044999999985976</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003115000000022405</v>
+        <v>0.0003580000000056316</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002933999999967796</v>
+        <v>0.0003080000000039718</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002908000000019229</v>
+        <v>0.0003182000000023777</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.0002957000000023413</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003095999999942478</v>
+        <v>0.0003103000000024281</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0003141000000042027</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0003073000000028969</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003425000000021328</v>
+        <v>0.0003152999999969097</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.001402999999996268</v>
+        <v>0.0002880999999987921</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0003082999999932667</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003103000000024281</v>
+        <v>0.0003197999999997592</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003069000000053279</v>
+        <v>0.0002963000000022475</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003254999999953156</v>
+        <v>0.0002909999999971546</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003294999999994275</v>
+        <v>0.0003109000000023343</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003065000000006535</v>
+        <v>0.0002911000000054287</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000301999999997804</v>
+        <v>0.0002863000000061788</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0003822000000042181</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003687999999968383</v>
+        <v>0.0003018000000025722</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003196999999985906</v>
+        <v>0.0002909999999971546</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0007200000000011642</v>
+        <v>0.0003019000000037408</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003408999999976459</v>
+        <v>0.0003102000000012595</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003506000000044196</v>
+        <v>0.0002970000000033224</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.000534999999999286</v>
+        <v>0.0002928999999980419</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.000522599999996487</v>
+        <v>0.000309000000001447</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003415999999987207</v>
+        <v>0.0003011000000014974</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.0003000000000028535</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003498999999962393</v>
+        <v>0.0006775000000018849</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0006500000000002615</v>
+        <v>0.0003105999999988285</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.000339400000001433</v>
+        <v>0.0003096000000013532</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003268000000034021</v>
+        <v>0.0003293999999982589</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002940000000037912</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003096999999954164</v>
+        <v>0.0003036000000022909</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003273000000021398</v>
+        <v>0.0003049999999973352</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0002988999999971043</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002999000000016849</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0004607999999990398</v>
+        <v>0.001235799999996345</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003250999999977466</v>
+        <v>0.0003166999999990594</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002890000000022042</v>
+        <v>0.000289199999997436</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0002966999999998166</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003559000000024071</v>
+        <v>0.0003250999999977466</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003571999999962827</v>
+        <v>0.0002960999999999103</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003039999999998599</v>
+        <v>0.0003358999999960588</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003280999999972778</v>
+        <v>0.0003111999999987347</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003066999999958853</v>
+        <v>0.0002993000000017787</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000293800000001454</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.00035090000000082</v>
+        <v>0.000290499999998417</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003485999999952583</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0004701999999952022</v>
+        <v>0.0003047000000009348</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0004959000000042124</v>
+        <v>0.0002917000000053349</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0004390000000000782</v>
+        <v>0.000316400000002659</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003369000000006395</v>
+        <v>0.0003091999999966788</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002988000000030411</v>
+        <v>0.0002903999999972484</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002915999999970609</v>
+        <v>0.0008450999999993769</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003152000000028465</v>
+        <v>0.0003276999999997088</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003008999999991602</v>
+        <v>0.0002916999999982295</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0003006000000027598</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0003248999999954094</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.000296700000006922</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003023000000013099</v>
+        <v>0.0003010000000003288</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0004591999999945529</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.0.xlsx
+++ b/tests/test1/d30/N, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0007656999999952063</v>
+        <v>0.00292079999999828</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.00131870000000589</v>
+        <v>0.0006054999999918209</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0006143999999963512</v>
+        <v>0.0004570999999913283</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.001264200000001381</v>
+        <v>0.0004555000000010523</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003827000000029557</v>
+        <v>0.001558200000005172</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.000335199999994984</v>
+        <v>0.0003537000000051194</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003451999999981581</v>
+        <v>0.0003329999999976962</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003343000000057827</v>
+        <v>0.0003297999999887224</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0004731999999947334</v>
+        <v>0.0006637000000040416</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003179000000059773</v>
+        <v>0.0003497000000010075</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003275999999985402</v>
+        <v>0.0003352000000091948</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.001146300000002043</v>
+        <v>0.0003457000000111066</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003625000000013756</v>
+        <v>0.0003427999999985332</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0004765000000048758</v>
+        <v>0.0003578000000032944</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003405000000000769</v>
+        <v>0.0005658000000039465</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003943000000035113</v>
+        <v>0.0005876999999969712</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003298999999969965</v>
+        <v>0.001105899999998883</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005317999999974177</v>
+        <v>0.0005285999999955493</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003550000000061004</v>
+        <v>0.0005321999999949867</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003382000000016205</v>
+        <v>0.0008727999999962321</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0006534999999985303</v>
+        <v>0.0004513000000088141</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003363000000007332</v>
+        <v>0.0003597000000041817</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003336999999987711</v>
+        <v>0.0003600999999946453</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.00182840000000084</v>
+        <v>0.0005816999999979089</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.000568199999996466</v>
+        <v>0.000332100000008495</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003347999999974149</v>
+        <v>0.0003128000000032216</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003492999999963331</v>
+        <v>0.0003439000000042824</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0005282999999991489</v>
+        <v>0.0003284000000007836</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003244000000037772</v>
+        <v>0.0003169999999954598</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003213999999971406</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003181999999952723</v>
+        <v>0.0008817999999877202</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0005657000000027779</v>
+        <v>0.0003257999999988215</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003847000000050116</v>
+        <v>0.0003458999999992329</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003355999999996584</v>
+        <v>0.0003835999999921569</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003177000000036401</v>
+        <v>0.0005277000000063481</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002990999999994415</v>
+        <v>0.000690199999993979</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003500000000045134</v>
+        <v>0.0004868000000044503</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0004015999999964492</v>
+        <v>0.0005310999999892374</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003044999999985976</v>
+        <v>0.0004167000000023791</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003580000000056316</v>
+        <v>0.0003176999999965346</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003080000000039718</v>
+        <v>0.0005663999999967473</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003182000000023777</v>
+        <v>0.000321199999987698</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002957000000023413</v>
+        <v>0.0003073999999969601</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003103000000024281</v>
+        <v>0.0003370999999958713</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003141000000042027</v>
+        <v>0.0003398000000061074</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003073000000028969</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003152999999969097</v>
+        <v>0.0003213999999900352</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002880999999987921</v>
+        <v>0.0003200000000020964</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003082999999932667</v>
+        <v>0.0003150000000005093</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0003109999999963975</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.0007334000000014385</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002909999999971546</v>
+        <v>0.0003253000000000839</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003109000000023343</v>
+        <v>0.000332100000008495</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002911000000054287</v>
+        <v>0.0003260999999952219</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002863000000061788</v>
+        <v>0.0003231999999968593</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003822000000042181</v>
+        <v>0.0003228000000063957</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0002974999999878492</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002909999999971546</v>
+        <v>0.0003256999999905474</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003019000000037408</v>
+        <v>0.0003011999999955606</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003102000000012595</v>
+        <v>0.0003086999999908357</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002970000000033224</v>
+        <v>0.0003375999999946089</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002928999999980419</v>
+        <v>0.0003293999999982589</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.000309000000001447</v>
+        <v>0.0002963000000022475</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003011000000014974</v>
+        <v>0.0006100000000088812</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003000000000028535</v>
+        <v>0.0003192000000069584</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0006775000000018849</v>
+        <v>0.0003075999999992973</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003105999999988285</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002843999999981861</v>
+        <v>0.0003299999999910597</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003096000000013532</v>
+        <v>0.0002997000000135586</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003293999999982589</v>
+        <v>0.0003030000000023847</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002870000000001482</v>
+        <v>0.0003331000000059703</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003036000000022909</v>
+        <v>0.0002944999999954234</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0002884000000022979</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002988999999971043</v>
+        <v>0.0006187000000039689</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002999000000016849</v>
+        <v>0.0003174000000001342</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.001235799999996345</v>
+        <v>0.00029750000000206</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.0002957999999892991</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.000289199999997436</v>
+        <v>0.0003332999999940967</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002966999999998166</v>
+        <v>0.0002980000000007976</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003250999999977466</v>
+        <v>0.0002977999999984604</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0003235000000074706</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003358999999960588</v>
+        <v>0.0006399999999899819</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003111999999987347</v>
+        <v>0.0003194999999891479</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002993000000017787</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0002992000000006101</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.000290499999998417</v>
+        <v>0.0003142999999994345</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0002956999999952359</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003047000000009348</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002917000000053349</v>
+        <v>0.0003387999999944213</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.000316400000002659</v>
+        <v>0.0003207999999972344</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003091999999966788</v>
+        <v>0.0002887999999927615</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002903999999972484</v>
+        <v>0.0003132000000078961</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0008450999999993769</v>
+        <v>0.000332000000000221</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003276999999997088</v>
+        <v>0.0002934999999979482</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002916999999982295</v>
+        <v>0.0003126000000008844</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003006000000027598</v>
+        <v>0.0003242000000085454</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003248999999954094</v>
+        <v>0.0003025999999977103</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000296700000006922</v>
+        <v>0.0003089999999872362</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003010000000003288</v>
+        <v>0.0007374000000055503</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0004591999999945529</v>
+        <v>0.0003496000000069444</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d30/N, 0.0.xlsx
+++ b/tests/test1/d30/N, 0.0.xlsx
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.99999999999243</v>
+        <v>29.99999999999354</v>
       </c>
       <c r="G2" t="n">
-        <v>98.78643070691872</v>
+        <v>98.78643070691903</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58227239646528</v>
+        <v>11.58227239646581</v>
       </c>
       <c r="I2" t="n">
         <v>30.54452539071436</v>
@@ -547,16 +547,16 @@
         <v>29.33066725219249</v>
       </c>
       <c r="K2" t="n">
-        <v>30.54452539071377</v>
+        <v>30.54452539071385</v>
       </c>
       <c r="L2" t="n">
-        <v>29.33066725218345</v>
+        <v>29.33066725218456</v>
       </c>
       <c r="M2" t="n">
-        <v>5.583588337292092e-26</v>
+        <v>4.084855522172997e-26</v>
       </c>
       <c r="N2" t="n">
-        <v>1.47988275027271e-12</v>
+        <v>1.289173153883219e-12</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.00292079999999828</v>
+        <v>0.0003287000000042894</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.00000000000236</v>
+        <v>29.99999999999377</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06396084646322</v>
+        <v>75.06396084646254</v>
       </c>
       <c r="H3" t="n">
-        <v>11.64389392130712</v>
+        <v>11.64389392130283</v>
       </c>
       <c r="I3" t="n">
         <v>25.33705432792731</v>
@@ -599,16 +599,16 @@
         <v>34.28275889914102</v>
       </c>
       <c r="K3" t="n">
-        <v>25.33705432792746</v>
+        <v>25.33705432792686</v>
       </c>
       <c r="L3" t="n">
-        <v>34.28275889914451</v>
+        <v>34.28275889913353</v>
       </c>
       <c r="M3" t="n">
-        <v>5.009421051558877e-27</v>
+        <v>3.334452274064634e-26</v>
       </c>
       <c r="N3" t="n">
-        <v>4.714828185270248e-13</v>
+        <v>1.156749829174541e-12</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0006054999999918209</v>
+        <v>0.0002662999999998306</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.00000000000027</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47908238556509</v>
+        <v>78.47908238555785</v>
       </c>
       <c r="H4" t="n">
-        <v>3.311114781934651</v>
+        <v>3.31111478193475</v>
       </c>
       <c r="I4" t="n">
         <v>10.18789668310031</v>
@@ -651,16 +651,16 @@
         <v>28.62860242763599</v>
       </c>
       <c r="K4" t="n">
-        <v>10.18789668310034</v>
+        <v>10.1878966831003</v>
       </c>
       <c r="L4" t="n">
-        <v>28.62860242763475</v>
+        <v>28.62860242763494</v>
       </c>
       <c r="M4" t="n">
-        <v>2.838519320651071e-28</v>
+        <v>9.452754094388289e-29</v>
       </c>
       <c r="N4" t="n">
-        <v>2.247474270344412e-13</v>
+        <v>1.731821178301302e-13</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0004570999999913283</v>
+        <v>0.0003112999999999033</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>30.00000000001048</v>
+        <v>29.99999999998781</v>
       </c>
       <c r="G5" t="n">
-        <v>99.14362246342245</v>
+        <v>99.1436224634254</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49777387142246</v>
+        <v>11.49777387141119</v>
       </c>
       <c r="I5" t="n">
         <v>30.42186793534146</v>
@@ -703,16 +703,16 @@
         <v>29.21316117156715</v>
       </c>
       <c r="K5" t="n">
-        <v>30.42186793534226</v>
+        <v>30.42186793534055</v>
       </c>
       <c r="L5" t="n">
-        <v>29.21316117158051</v>
+        <v>29.21316117155538</v>
       </c>
       <c r="M5" t="n">
-        <v>1.074842774747979e-25</v>
+        <v>1.458530332748433e-25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.120576918864419e-12</v>
+        <v>2.264909569128745e-12</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0004555000000010523</v>
+        <v>0.0002709999999979118</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.00000000000052</v>
+        <v>30.00000000000071</v>
       </c>
       <c r="G6" t="n">
-        <v>174.0653710224616</v>
+        <v>174.0653710224615</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566786990108911</v>
+        <v>9.566786990108969</v>
       </c>
       <c r="I6" t="n">
         <v>8.399717828514826</v>
@@ -755,16 +755,16 @@
         <v>16.13813378453141</v>
       </c>
       <c r="K6" t="n">
-        <v>8.399717828514927</v>
+        <v>8.399717828514966</v>
       </c>
       <c r="L6" t="n">
-        <v>16.13813378453209</v>
+        <v>16.13813378453222</v>
       </c>
       <c r="M6" t="n">
-        <v>8.749856995061982e-28</v>
+        <v>1.602120629843759e-27</v>
       </c>
       <c r="N6" t="n">
-        <v>1.660157608958341e-13</v>
+        <v>2.048574712683629e-13</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.001558200000005172</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.00000000000196</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>39.95877079615374</v>
+        <v>39.95877079615274</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44878767412952</v>
+        <v>13.4487876741287</v>
       </c>
       <c r="I7" t="n">
         <v>16.18089193105339</v>
@@ -807,16 +807,16 @@
         <v>41.39368334310793</v>
       </c>
       <c r="K7" t="n">
-        <v>16.18089193105352</v>
+        <v>16.18089193105337</v>
       </c>
       <c r="L7" t="n">
-        <v>41.39368334310901</v>
+        <v>41.39368334310634</v>
       </c>
       <c r="M7" t="n">
-        <v>2.890765311941992e-27</v>
+        <v>1.594310662073467e-28</v>
       </c>
       <c r="N7" t="n">
-        <v>2.734464372441152e-13</v>
+        <v>1.066725096708665e-13</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003537000000051194</v>
+        <v>0.0002656999999999243</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30.00000000000025</v>
+        <v>30.00000000000044</v>
       </c>
       <c r="G8" t="n">
-        <v>160.7148272584796</v>
+        <v>160.7148272584805</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983757663614083</v>
+        <v>6.983757663614357</v>
       </c>
       <c r="I8" t="n">
         <v>11.43325161517759</v>
@@ -859,16 +859,16 @@
         <v>19.8676358558312</v>
       </c>
       <c r="K8" t="n">
-        <v>11.43325161517761</v>
+        <v>11.43325161517765</v>
       </c>
       <c r="L8" t="n">
-        <v>19.86763585582947</v>
+        <v>19.8676358558293</v>
       </c>
       <c r="M8" t="n">
-        <v>2.526120609839378e-28</v>
+        <v>5.512760008892544e-28</v>
       </c>
       <c r="N8" t="n">
-        <v>1.855898074586117e-13</v>
+        <v>2.612972478092567e-13</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003329999999976962</v>
+        <v>0.0002575999999976375</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>30.00000000000021</v>
+        <v>29.99999999999961</v>
       </c>
       <c r="G9" t="n">
-        <v>13.73549208731236</v>
+        <v>13.73549208731205</v>
       </c>
       <c r="H9" t="n">
-        <v>12.3590255068815</v>
+        <v>12.35902550688136</v>
       </c>
       <c r="I9" t="n">
         <v>6.405887000684803</v>
@@ -911,16 +911,16 @@
         <v>42.05289827013716</v>
       </c>
       <c r="K9" t="n">
-        <v>6.405887000684817</v>
+        <v>6.405887000684778</v>
       </c>
       <c r="L9" t="n">
-        <v>42.0528982701362</v>
+        <v>42.05289827013544</v>
       </c>
       <c r="M9" t="n">
-        <v>6.813523606496403e-29</v>
+        <v>1.265753397254273e-28</v>
       </c>
       <c r="N9" t="n">
-        <v>6.459065975702324e-14</v>
+        <v>8.35315802585576e-14</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003297999999887224</v>
+        <v>0.0002512999999950694</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>30.00000000000549</v>
+        <v>29.99999999999143</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2172925025248</v>
+        <v>157.2172925025299</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62248795385414</v>
+        <v>14.62248795384651</v>
       </c>
       <c r="I10" t="n">
         <v>35.40628251682527</v>
@@ -963,16 +963,16 @@
         <v>13.7482000025743</v>
       </c>
       <c r="K10" t="n">
-        <v>35.40628251682602</v>
+        <v>35.40628251682408</v>
       </c>
       <c r="L10" t="n">
-        <v>13.74820000257666</v>
+        <v>13.7482000025687</v>
       </c>
       <c r="M10" t="n">
-        <v>6.314305080434649e-26</v>
+        <v>1.594656051165377e-25</v>
       </c>
       <c r="N10" t="n">
-        <v>1.030193262729435e-12</v>
+        <v>1.851679639644274e-12</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0006637000000040416</v>
+        <v>0.0002456999999935761</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>29.99999999999968</v>
+        <v>29.99999999999981</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867347699425886</v>
+        <v>1.867347699425988</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022495105785094</v>
+        <v>9.022495105785351</v>
       </c>
       <c r="I11" t="n">
         <v>2.283217732932411</v>
@@ -1015,16 +1015,16 @@
         <v>38.23523664126705</v>
       </c>
       <c r="K11" t="n">
-        <v>2.283217732932398</v>
+        <v>2.283217732932411</v>
       </c>
       <c r="L11" t="n">
-        <v>38.23523664126508</v>
+        <v>38.23523664126552</v>
       </c>
       <c r="M11" t="n">
-        <v>6.867385453188075e-29</v>
+        <v>7.244418380029773e-29</v>
       </c>
       <c r="N11" t="n">
-        <v>1.521298665505571e-13</v>
+        <v>2.017638395916499e-13</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003497000000010075</v>
+        <v>0.0002551999999980126</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>29.99999999999976</v>
+        <v>29.99999999999969</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8377157880171</v>
+        <v>138.8377157880134</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249023392312903</v>
+        <v>3.249023392312708</v>
       </c>
       <c r="I12" t="n">
         <v>8.689710829394025</v>
@@ -1070,13 +1070,13 @@
         <v>8.689710829393986</v>
       </c>
       <c r="L12" t="n">
-        <v>24.73231265962153</v>
+        <v>24.73231265962181</v>
       </c>
       <c r="M12" t="n">
-        <v>2.477644947816874e-28</v>
+        <v>1.777440940825149e-28</v>
       </c>
       <c r="N12" t="n">
-        <v>1.995430651840125e-13</v>
+        <v>1.872731743823073e-13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003352000000091948</v>
+        <v>0.0002496000000036247</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.99999999999981</v>
+        <v>29.99999999999969</v>
       </c>
       <c r="G13" t="n">
-        <v>32.44854399781506</v>
+        <v>32.44854399782011</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233702897851834</v>
+        <v>3.233702897851206</v>
       </c>
       <c r="I13" t="n">
         <v>6.055750253915085</v>
@@ -1119,16 +1119,16 @@
         <v>30.83028323690103</v>
       </c>
       <c r="K13" t="n">
-        <v>6.055750253915085</v>
+        <v>6.055750253915048</v>
       </c>
       <c r="L13" t="n">
-        <v>30.83028323690177</v>
+        <v>30.83028323690082</v>
       </c>
       <c r="M13" t="n">
-        <v>1.702034355456809e-28</v>
+        <v>3.099749277105676e-28</v>
       </c>
       <c r="N13" t="n">
-        <v>3.869808475691432e-13</v>
+        <v>2.831552892337853e-13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003457000000111066</v>
+        <v>0.0002449000000055435</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>29.99999999999871</v>
+        <v>30.00000000000189</v>
       </c>
       <c r="G14" t="n">
-        <v>27.74931162834184</v>
+        <v>27.74931162834167</v>
       </c>
       <c r="H14" t="n">
-        <v>11.88059635818342</v>
+        <v>11.88059635818574</v>
       </c>
       <c r="I14" t="n">
         <v>11.04565230035812</v>
@@ -1171,16 +1171,16 @@
         <v>40.75574104258677</v>
       </c>
       <c r="K14" t="n">
-        <v>11.04565230035804</v>
+        <v>11.04565230035826</v>
       </c>
       <c r="L14" t="n">
-        <v>40.75574104258177</v>
+        <v>40.75574104258756</v>
       </c>
       <c r="M14" t="n">
-        <v>3.14014566212443e-27</v>
+        <v>2.933316170828412e-27</v>
       </c>
       <c r="N14" t="n">
-        <v>5.475072113056972e-13</v>
+        <v>2.702721078592281e-13</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003427999999985332</v>
+        <v>0.000251900000002081</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>30.00000000000004</v>
+        <v>30.00000000000017</v>
       </c>
       <c r="G15" t="n">
-        <v>139.9864339032875</v>
+        <v>139.9864339032877</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850494640418948</v>
+        <v>5.850494640419005</v>
       </c>
       <c r="I15" t="n">
         <v>14.48335361376716</v>
@@ -1223,16 +1223,16 @@
         <v>22.72893730129499</v>
       </c>
       <c r="K15" t="n">
-        <v>14.48335361376718</v>
+        <v>14.48335361376719</v>
       </c>
       <c r="L15" t="n">
-        <v>22.72893730129596</v>
+        <v>22.72893730129602</v>
       </c>
       <c r="M15" t="n">
-        <v>2.908539721350243e-29</v>
+        <v>9.371961324350784e-29</v>
       </c>
       <c r="N15" t="n">
-        <v>7.524188016134699e-14</v>
+        <v>1.09455436705177e-13</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003578000000032944</v>
+        <v>0.0002581000000034805</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.99999999999934</v>
+        <v>30.00000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>92.50980187908587</v>
+        <v>92.50980187908522</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27798062495107</v>
+        <v>12.27798062495148</v>
       </c>
       <c r="I16" t="n">
         <v>30.72180748031497</v>
@@ -1275,16 +1275,16 @@
         <v>31.10359375652314</v>
       </c>
       <c r="K16" t="n">
-        <v>30.72180748031499</v>
+        <v>30.72180748031502</v>
       </c>
       <c r="L16" t="n">
-        <v>31.10359375652345</v>
+        <v>31.10359375652441</v>
       </c>
       <c r="M16" t="n">
-        <v>2.86975919173224e-27</v>
+        <v>8.391675714562368e-28</v>
       </c>
       <c r="N16" t="n">
-        <v>1.63634850461477e-13</v>
+        <v>1.222650310093152e-13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0005658000000039465</v>
+        <v>0.0002555999999955816</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>29.99999999999995</v>
+        <v>29.99999999999904</v>
       </c>
       <c r="G17" t="n">
-        <v>152.7871855083467</v>
+        <v>152.7871855083455</v>
       </c>
       <c r="H17" t="n">
-        <v>5.146751099052276</v>
+        <v>5.146751099051833</v>
       </c>
       <c r="I17" t="n">
         <v>10.34172524231339</v>
@@ -1327,16 +1327,16 @@
         <v>22.25264734341951</v>
       </c>
       <c r="K17" t="n">
-        <v>10.34172524231339</v>
+        <v>10.34172524231326</v>
       </c>
       <c r="L17" t="n">
-        <v>22.25264734341806</v>
+        <v>22.25264734341768</v>
       </c>
       <c r="M17" t="n">
-        <v>5.53969093223838e-28</v>
+        <v>1.784712290128525e-27</v>
       </c>
       <c r="N17" t="n">
-        <v>3.160260397035504e-13</v>
+        <v>2.706223133849015e-13</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005876999999969712</v>
+        <v>0.0002478999999979692</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>30.00000000000081</v>
+        <v>30.00000000000056</v>
       </c>
       <c r="G18" t="n">
-        <v>40.19239424763668</v>
+        <v>40.19239424763625</v>
       </c>
       <c r="H18" t="n">
-        <v>9.277960096808618</v>
+        <v>9.27796009680862</v>
       </c>
       <c r="I18" t="n">
         <v>13.10617957966178</v>
@@ -1379,16 +1379,16 @@
         <v>36.84819385366504</v>
       </c>
       <c r="K18" t="n">
-        <v>13.10617957966184</v>
+        <v>13.10617957966182</v>
       </c>
       <c r="L18" t="n">
-        <v>36.84819385366537</v>
+        <v>36.84819385366517</v>
       </c>
       <c r="M18" t="n">
-        <v>8.413220453239037e-28</v>
+        <v>6.816216698830987e-28</v>
       </c>
       <c r="N18" t="n">
-        <v>1.730683133158132e-13</v>
+        <v>1.681009557751682e-13</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.001105899999998883</v>
+        <v>0.0002466999999981567</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>29.99999999999798</v>
+        <v>29.99999999999935</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03970048368012</v>
+        <v>53.03970048368015</v>
       </c>
       <c r="H19" t="n">
-        <v>9.36704106726252</v>
+        <v>9.367041067263145</v>
       </c>
       <c r="I19" t="n">
         <v>16.55986375037994</v>
@@ -1431,16 +1431,16 @@
         <v>35.61949574546529</v>
       </c>
       <c r="K19" t="n">
-        <v>16.5598637503798</v>
+        <v>16.5598637503799</v>
       </c>
       <c r="L19" t="n">
-        <v>35.61949574546406</v>
+        <v>35.61949574546596</v>
       </c>
       <c r="M19" t="n">
-        <v>4.179409994040225e-27</v>
+        <v>5.596245871264634e-28</v>
       </c>
       <c r="N19" t="n">
-        <v>3.719012638785653e-13</v>
+        <v>1.50710204805865e-13</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005285999999955493</v>
+        <v>0.0005621999999974037</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>29.99999999999944</v>
+        <v>30.00000000000493</v>
       </c>
       <c r="G20" t="n">
-        <v>117.0673635131262</v>
+        <v>117.0673635131233</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065440484817884</v>
+        <v>9.065440484820046</v>
       </c>
       <c r="I20" t="n">
         <v>25.82629642817216</v>
@@ -1483,16 +1483,16 @@
         <v>24.92281376836615</v>
       </c>
       <c r="K20" t="n">
-        <v>25.82629642817208</v>
+        <v>25.82629642817258</v>
       </c>
       <c r="L20" t="n">
-        <v>24.92281376836453</v>
+        <v>24.92281376836995</v>
       </c>
       <c r="M20" t="n">
-        <v>5.693197195309643e-28</v>
+        <v>3.125414447054258e-26</v>
       </c>
       <c r="N20" t="n">
-        <v>2.013899824084141e-13</v>
+        <v>9.728632335507754e-13</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0005321999999949867</v>
+        <v>0.0002593999999973562</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>30.00000000000017</v>
+        <v>29.99999999999959</v>
       </c>
       <c r="G21" t="n">
-        <v>17.55604831490118</v>
+        <v>17.55604831490158</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13499660009856</v>
+        <v>12.13499660009755</v>
       </c>
       <c r="I21" t="n">
         <v>7.677292830157072</v>
@@ -1535,16 +1535,16 @@
         <v>41.64062699719003</v>
       </c>
       <c r="K21" t="n">
-        <v>7.677292830157084</v>
+        <v>7.677292830157033</v>
       </c>
       <c r="L21" t="n">
-        <v>41.64062699718963</v>
+        <v>41.64062699718784</v>
       </c>
       <c r="M21" t="n">
-        <v>1.125712595855928e-28</v>
+        <v>5.434660331189621e-28</v>
       </c>
       <c r="N21" t="n">
-        <v>7.833777882819344e-14</v>
+        <v>2.507491332177169e-13</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0008727999999962321</v>
+        <v>0.0002658000000010929</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>30.0000000000028</v>
+        <v>30.00000000000741</v>
       </c>
       <c r="G22" t="n">
-        <v>105.8635441939087</v>
+        <v>105.8635441939093</v>
       </c>
       <c r="H22" t="n">
-        <v>13.77256473491464</v>
+        <v>13.77256473491724</v>
       </c>
       <c r="I22" t="n">
         <v>36.73913688060643</v>
@@ -1587,16 +1587,16 @@
         <v>28.53374266718802</v>
       </c>
       <c r="K22" t="n">
-        <v>36.73913688060659</v>
+        <v>36.73913688060701</v>
       </c>
       <c r="L22" t="n">
-        <v>28.53374266719108</v>
+        <v>28.53374266719572</v>
       </c>
       <c r="M22" t="n">
-        <v>7.673697298162392e-27</v>
+        <v>5.042014201538176e-26</v>
       </c>
       <c r="N22" t="n">
-        <v>5.350488421877688e-13</v>
+        <v>1.361387899824713e-12</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0004513000000088141</v>
+        <v>0.0002494000000012875</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.00000000000004</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="G23" t="n">
-        <v>8.77047854564284</v>
+        <v>8.770478545642993</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469315917478001</v>
+        <v>6.469315917477925</v>
       </c>
       <c r="I23" t="n">
         <v>3.841879221367843</v>
@@ -1639,16 +1639,16 @@
         <v>35.13499912840096</v>
       </c>
       <c r="K23" t="n">
-        <v>3.841879221367855</v>
+        <v>3.841879221367868</v>
       </c>
       <c r="L23" t="n">
-        <v>35.13499912840325</v>
+        <v>35.1349991284033</v>
       </c>
       <c r="M23" t="n">
-        <v>5.736286672662981e-29</v>
+        <v>7.917691463675662e-29</v>
       </c>
       <c r="N23" t="n">
-        <v>1.875458190651929e-13</v>
+        <v>1.674930711740136e-13</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003597000000041817</v>
+        <v>0.000202600000001496</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>29.99999999999944</v>
+        <v>30.00000000000068</v>
       </c>
       <c r="G24" t="n">
-        <v>37.52289672459263</v>
+        <v>37.52289672459185</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780172741159818</v>
+        <v>8.780172741160671</v>
       </c>
       <c r="I24" t="n">
         <v>11.9862826901246</v>
@@ -1691,16 +1691,16 @@
         <v>36.5366037130493</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98628269012456</v>
+        <v>11.98628269012465</v>
       </c>
       <c r="L24" t="n">
-        <v>36.53660371304954</v>
+        <v>36.53660371305176</v>
       </c>
       <c r="M24" t="n">
-        <v>7.958087848694414e-28</v>
+        <v>4.570177691788299e-28</v>
       </c>
       <c r="N24" t="n">
-        <v>2.054714354336587e-13</v>
+        <v>2.108592862945071e-13</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003600999999946453</v>
+        <v>0.0002082000000029893</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>29.99999999999604</v>
+        <v>30.0000000000045</v>
       </c>
       <c r="G25" t="n">
-        <v>93.11361909238651</v>
+        <v>93.11361909238671</v>
       </c>
       <c r="H25" t="n">
-        <v>14.36355124577536</v>
+        <v>14.36355124578037</v>
       </c>
       <c r="I25" t="n">
         <v>34.79974963322789</v>
@@ -1743,16 +1743,16 @@
         <v>32.20772710025805</v>
       </c>
       <c r="K25" t="n">
-        <v>34.79974963322766</v>
+        <v>34.79974963322822</v>
       </c>
       <c r="L25" t="n">
-        <v>32.20772710025412</v>
+        <v>32.20772710026417</v>
       </c>
       <c r="M25" t="n">
-        <v>1.358429437218129e-26</v>
+        <v>1.669010310703978e-26</v>
       </c>
       <c r="N25" t="n">
-        <v>6.914068345617608e-13</v>
+        <v>8.70881458999624e-13</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0005816999999979089</v>
+        <v>0.0002145999999996206</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>29.99999999999999</v>
+        <v>30.00000000000013</v>
       </c>
       <c r="G26" t="n">
         <v>172.8031146004653</v>
       </c>
       <c r="H26" t="n">
-        <v>11.3941445993949</v>
+        <v>11.39414459939498</v>
       </c>
       <c r="I26" t="n">
         <v>11.78642545097189</v>
@@ -1795,16 +1795,16 @@
         <v>14.11601099751434</v>
       </c>
       <c r="K26" t="n">
-        <v>11.78642545097189</v>
+        <v>11.78642545097192</v>
       </c>
       <c r="L26" t="n">
-        <v>14.11601099751596</v>
+        <v>14.11601099751602</v>
       </c>
       <c r="M26" t="n">
-        <v>6.732730836458897e-30</v>
+        <v>9.1565139375841e-29</v>
       </c>
       <c r="N26" t="n">
-        <v>1.930969572849382e-13</v>
+        <v>2.188161407348457e-13</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.000332100000008495</v>
+        <v>0.0002479999999991378</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>29.99999999999862</v>
+        <v>30.00000000000085</v>
       </c>
       <c r="G27" t="n">
-        <v>156.6223445928987</v>
+        <v>156.6223445928979</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987323144070162</v>
+        <v>9.987323144071057</v>
       </c>
       <c r="I27" t="n">
         <v>19.88592121432799</v>
@@ -1847,16 +1847,16 @@
         <v>17.42150158735378</v>
       </c>
       <c r="K27" t="n">
-        <v>19.88592121432777</v>
+        <v>19.88592121432811</v>
       </c>
       <c r="L27" t="n">
-        <v>17.42150158735151</v>
+        <v>17.42150158735294</v>
       </c>
       <c r="M27" t="n">
-        <v>4.673861746669766e-27</v>
+        <v>1.72815735110227e-27</v>
       </c>
       <c r="N27" t="n">
-        <v>4.263624086186434e-13</v>
+        <v>2.003272274139673e-13</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003128000000032216</v>
+        <v>0.0002046999999976151</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>30.00000000000006</v>
+        <v>29.99999999999897</v>
       </c>
       <c r="G28" t="n">
-        <v>55.42829147249487</v>
+        <v>55.42829147249566</v>
       </c>
       <c r="H28" t="n">
-        <v>9.232697751663613</v>
+        <v>9.232697751662968</v>
       </c>
       <c r="I28" t="n">
         <v>16.99876366455218</v>
@@ -1899,16 +1899,16 @@
         <v>35.20863709983118</v>
       </c>
       <c r="K28" t="n">
-        <v>16.99876366455218</v>
+        <v>16.9987636645521</v>
       </c>
       <c r="L28" t="n">
-        <v>35.20863709983053</v>
+        <v>35.20863709982878</v>
       </c>
       <c r="M28" t="n">
-        <v>2.74695418127523e-29</v>
+        <v>1.502745522697626e-27</v>
       </c>
       <c r="N28" t="n">
-        <v>3.522923878768496e-14</v>
+        <v>3.308981215001182e-13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003439000000042824</v>
+        <v>0.0002028999999978964</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.99999999999936</v>
+        <v>30.00000000000506</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62985389340103</v>
+        <v>76.62985389340133</v>
       </c>
       <c r="H29" t="n">
-        <v>12.77500488593431</v>
+        <v>12.77500488593741</v>
       </c>
       <c r="I29" t="n">
         <v>27.47750858341173</v>
@@ -1951,16 +1951,16 @@
         <v>34.86118304053818</v>
       </c>
       <c r="K29" t="n">
-        <v>27.47750858341168</v>
+        <v>27.47750858341207</v>
       </c>
       <c r="L29" t="n">
-        <v>34.86118304053777</v>
+        <v>34.86118304054521</v>
       </c>
       <c r="M29" t="n">
-        <v>3.716467421725311e-28</v>
+        <v>2.152777219496059e-26</v>
       </c>
       <c r="N29" t="n">
-        <v>1.021700875585675e-13</v>
+        <v>9.680791758623814e-13</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003284000000007836</v>
+        <v>0.0002022999999979902</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>29.99999999999858</v>
+        <v>29.99999999999464</v>
       </c>
       <c r="G30" t="n">
-        <v>131.2224736120433</v>
+        <v>131.2224736120443</v>
       </c>
       <c r="H30" t="n">
-        <v>9.734875227931196</v>
+        <v>9.734875227929562</v>
       </c>
       <c r="I30" t="n">
         <v>26.83056082492117</v>
@@ -2003,16 +2003,16 @@
         <v>22.06038522110382</v>
       </c>
       <c r="K30" t="n">
-        <v>26.83056082492109</v>
+        <v>26.83056082492063</v>
       </c>
       <c r="L30" t="n">
-        <v>22.06038522110323</v>
+        <v>22.0603852211</v>
       </c>
       <c r="M30" t="n">
-        <v>3.725354626429437e-27</v>
+        <v>4.123366742557542e-26</v>
       </c>
       <c r="N30" t="n">
-        <v>2.404993287591954e-13</v>
+        <v>1.043706285448862e-12</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003169999999954598</v>
+        <v>0.0002102999999991084</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.0000000000006</v>
+        <v>29.99999999999976</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4767974026151</v>
+        <v>155.476797402616</v>
       </c>
       <c r="H31" t="n">
-        <v>6.418871582731771</v>
+        <v>6.418871582731605</v>
       </c>
       <c r="I31" t="n">
         <v>12.09819807108279</v>
@@ -2055,16 +2055,16 @@
         <v>20.83865222468982</v>
       </c>
       <c r="K31" t="n">
-        <v>12.09819807108287</v>
+        <v>12.09819807108276</v>
       </c>
       <c r="L31" t="n">
-        <v>20.83865222469026</v>
+        <v>20.83865222468953</v>
       </c>
       <c r="M31" t="n">
-        <v>8.485933946272792e-28</v>
+        <v>2.938163737030663e-28</v>
       </c>
       <c r="N31" t="n">
-        <v>1.589325094304134e-13</v>
+        <v>9.034922182721855e-14</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0002507000000022686</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>29.99999999999833</v>
+        <v>29.99999999999967</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9458364923022</v>
+        <v>115.9458364923004</v>
       </c>
       <c r="H32" t="n">
-        <v>7.56898187562085</v>
+        <v>7.568981875621285</v>
       </c>
       <c r="I32" t="n">
         <v>21.74625583611728</v>
@@ -2107,16 +2107,16 @@
         <v>25.20335661415189</v>
       </c>
       <c r="K32" t="n">
-        <v>21.74625583611714</v>
+        <v>21.74625583611725</v>
       </c>
       <c r="L32" t="n">
-        <v>25.2033566141506</v>
+        <v>25.20335661415209</v>
       </c>
       <c r="M32" t="n">
-        <v>3.988200438284792e-27</v>
+        <v>1.866312987866406e-28</v>
       </c>
       <c r="N32" t="n">
-        <v>3.498949677862002e-13</v>
+        <v>6.088922232750839e-14</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0008817999999877202</v>
+        <v>0.0002239000000017199</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>29.99999999999826</v>
+        <v>29.99999999999646</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48968789889258</v>
+        <v>51.4896878988928</v>
       </c>
       <c r="H33" t="n">
-        <v>14.49726679822694</v>
+        <v>14.49726679822566</v>
       </c>
       <c r="I33" t="n">
         <v>21.14835897576047</v>
@@ -2159,16 +2159,16 @@
         <v>40.97552889614518</v>
       </c>
       <c r="K33" t="n">
-        <v>21.14835897576036</v>
+        <v>21.14835897576027</v>
       </c>
       <c r="L33" t="n">
-        <v>40.97552889614297</v>
+        <v>40.97552889613993</v>
       </c>
       <c r="M33" t="n">
-        <v>2.295053287532109e-27</v>
+        <v>1.040799394546508e-26</v>
       </c>
       <c r="N33" t="n">
-        <v>3.071715198594731e-13</v>
+        <v>6.65847018856853e-13</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003257999999988215</v>
+        <v>0.0002893999999997732</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>29.9999999999995</v>
+        <v>29.99999999999961</v>
       </c>
       <c r="G34" t="n">
-        <v>154.6000681127485</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="H34" t="n">
-        <v>7.47253385970339</v>
+        <v>7.472533859703208</v>
       </c>
       <c r="I34" t="n">
         <v>14.58268277756131</v>
@@ -2211,16 +2211,16 @@
         <v>19.92527519173688</v>
       </c>
       <c r="K34" t="n">
-        <v>14.58268277756127</v>
+        <v>14.58268277756126</v>
       </c>
       <c r="L34" t="n">
-        <v>19.92527519173497</v>
+        <v>19.92527519173538</v>
       </c>
       <c r="M34" t="n">
-        <v>8.518251054287797e-28</v>
+        <v>3.894211515807826e-28</v>
       </c>
       <c r="N34" t="n">
-        <v>2.101841238222017e-13</v>
+        <v>1.911392929037472e-13</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003458999999992329</v>
+        <v>0.0004386000000025092</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>29.99999999999807</v>
+        <v>30.00000000000065</v>
       </c>
       <c r="G35" t="n">
-        <v>44.73182293879272</v>
+        <v>44.73182293879002</v>
       </c>
       <c r="H35" t="n">
-        <v>8.399705052608374</v>
+        <v>8.399705052610155</v>
       </c>
       <c r="I35" t="n">
         <v>13.45458804417072</v>
@@ -2263,16 +2263,16 @@
         <v>35.519141243874</v>
       </c>
       <c r="K35" t="n">
-        <v>13.45458804417059</v>
+        <v>13.45458804417076</v>
       </c>
       <c r="L35" t="n">
-        <v>35.51914124387054</v>
+        <v>35.51914124387512</v>
       </c>
       <c r="M35" t="n">
-        <v>4.913008345980786e-27</v>
+        <v>1.111708515716093e-27</v>
       </c>
       <c r="N35" t="n">
-        <v>5.731265819731548e-13</v>
+        <v>2.752327956883103e-13</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003835999999921569</v>
+        <v>0.0002494000000012875</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>29.99999999999942</v>
+        <v>30.00000000000034</v>
       </c>
       <c r="G36" t="n">
-        <v>6.941102558653395</v>
+        <v>6.941102558654005</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36120552629659</v>
+        <v>12.36120552629544</v>
       </c>
       <c r="I36" t="n">
         <v>4.025126671418751</v>
@@ -2315,16 +2315,16 @@
         <v>42.21249127823732</v>
       </c>
       <c r="K36" t="n">
-        <v>4.025126671418725</v>
+        <v>4.025126671418763</v>
       </c>
       <c r="L36" t="n">
-        <v>42.21249127823589</v>
+        <v>42.21249127823545</v>
       </c>
       <c r="M36" t="n">
-        <v>2.151780775332263e-28</v>
+        <v>1.812451141174735e-28</v>
       </c>
       <c r="N36" t="n">
-        <v>1.704582523897643e-13</v>
+        <v>2.137436084933202e-13</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0005277000000063481</v>
+        <v>0.0002208999999950834</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>29.99999999999996</v>
+        <v>29.99999999999884</v>
       </c>
       <c r="G37" t="n">
-        <v>82.44989068033345</v>
+        <v>82.44989068033686</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700195283579069</v>
+        <v>6.700195283578532</v>
       </c>
       <c r="I37" t="n">
         <v>17.81803300985169</v>
@@ -2367,16 +2367,16 @@
         <v>29.87298333979204</v>
       </c>
       <c r="K37" t="n">
-        <v>17.81803300985166</v>
+        <v>17.8180330098516</v>
       </c>
       <c r="L37" t="n">
-        <v>29.87298333979304</v>
+        <v>29.87298333979127</v>
       </c>
       <c r="M37" t="n">
-        <v>8.405141176235286e-28</v>
+        <v>1.573304541863715e-27</v>
       </c>
       <c r="N37" t="n">
-        <v>1.823067796781398e-13</v>
+        <v>2.306518733952886e-13</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.000690199999993979</v>
+        <v>0.0003122000000033154</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29.99999999999643</v>
+        <v>30.00000000000628</v>
       </c>
       <c r="G38" t="n">
-        <v>131.1312944872322</v>
+        <v>131.131294487226</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21937054844106</v>
+        <v>10.21937054844509</v>
       </c>
       <c r="I38" t="n">
         <v>28.31386058767408</v>
@@ -2419,16 +2419,16 @@
         <v>21.94213719690333</v>
       </c>
       <c r="K38" t="n">
-        <v>28.31386058767373</v>
+        <v>28.31386058767461</v>
       </c>
       <c r="L38" t="n">
-        <v>21.94213719690036</v>
+        <v>21.94213719690925</v>
       </c>
       <c r="M38" t="n">
-        <v>1.799685883508809e-26</v>
+        <v>5.624469478931071e-26</v>
       </c>
       <c r="N38" t="n">
-        <v>7.174196114931942e-13</v>
+        <v>1.319642324158312e-12</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0004868000000044503</v>
+        <v>0.0002253999999979328</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>30.00000000000043</v>
+        <v>30.00000000000042</v>
       </c>
       <c r="G39" t="n">
-        <v>170.009388514315</v>
+        <v>170.0093885143139</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569178091653058</v>
+        <v>8.569178091652557</v>
       </c>
       <c r="I39" t="n">
         <v>9.715176392221503</v>
@@ -2471,16 +2471,16 @@
         <v>17.50763382333646</v>
       </c>
       <c r="K39" t="n">
-        <v>9.715176392221579</v>
+        <v>9.715176392221565</v>
       </c>
       <c r="L39" t="n">
-        <v>17.50763382333874</v>
+        <v>17.50763382333936</v>
       </c>
       <c r="M39" t="n">
-        <v>5.475056716208375e-28</v>
+        <v>1.643594251796346e-27</v>
       </c>
       <c r="N39" t="n">
-        <v>2.928094167107472e-13</v>
+        <v>4.220604794512028e-13</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0005310999999892374</v>
+        <v>0.000250999999998669</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30.00000000000471</v>
+        <v>30.00000000001087</v>
       </c>
       <c r="G40" t="n">
-        <v>69.25916151301494</v>
+        <v>69.25916151301314</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31649415908994</v>
+        <v>13.31649415909391</v>
       </c>
       <c r="I40" t="n">
         <v>25.99804240757942</v>
@@ -2523,16 +2523,16 @@
         <v>36.76281015298541</v>
       </c>
       <c r="K40" t="n">
-        <v>25.99804240757975</v>
+        <v>25.99804240758006</v>
       </c>
       <c r="L40" t="n">
-        <v>36.76281015298954</v>
+        <v>36.7628101529989</v>
       </c>
       <c r="M40" t="n">
-        <v>1.722474926276298e-26</v>
+        <v>1.019647847350689e-25</v>
       </c>
       <c r="N40" t="n">
-        <v>7.706301868443647e-13</v>
+        <v>2.00308160997345e-12</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0004167000000023791</v>
+        <v>0.0002083999999982211</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>30.00000000000564</v>
+        <v>30.00000000000043</v>
       </c>
       <c r="G41" t="n">
-        <v>98.44004810616322</v>
+        <v>98.44004810616379</v>
       </c>
       <c r="H41" t="n">
-        <v>12.57478825539429</v>
+        <v>12.5747882553915</v>
       </c>
       <c r="I41" t="n">
         <v>32.60101457491432</v>
@@ -2575,16 +2575,16 @@
         <v>29.87603008831807</v>
       </c>
       <c r="K41" t="n">
-        <v>32.60101457491472</v>
+        <v>32.60101457491435</v>
       </c>
       <c r="L41" t="n">
-        <v>29.87603008832467</v>
+        <v>29.87603008831878</v>
       </c>
       <c r="M41" t="n">
-        <v>2.956261317519065e-26</v>
+        <v>2.049443266618088e-28</v>
       </c>
       <c r="N41" t="n">
-        <v>1.085681879935222e-12</v>
+        <v>9.462685056092188e-14</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003176999999965346</v>
+        <v>0.0002031000000002336</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>29.9999999999998</v>
+        <v>30.00000000000005</v>
       </c>
       <c r="G42" t="n">
-        <v>73.38366505445119</v>
+        <v>73.38366505445266</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664392481342286</v>
+        <v>3.664392481342294</v>
       </c>
       <c r="I42" t="n">
         <v>10.64650715668175</v>
@@ -2627,16 +2627,16 @@
         <v>29.14275992229884</v>
       </c>
       <c r="K42" t="n">
-        <v>10.64650715668172</v>
+        <v>10.64650715668175</v>
       </c>
       <c r="L42" t="n">
-        <v>29.1427599222996</v>
+        <v>29.14275992229975</v>
       </c>
       <c r="M42" t="n">
-        <v>8.133138850442347e-29</v>
+        <v>4.982220818979584e-29</v>
       </c>
       <c r="N42" t="n">
-        <v>8.22369572260053e-14</v>
+        <v>1.000339058674261e-13</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0005663999999967473</v>
+        <v>0.0002026999999955592</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.99999999999947</v>
+        <v>29.99999999999987</v>
       </c>
       <c r="G43" t="n">
-        <v>45.16625227408827</v>
+        <v>45.16625227408917</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553149848071281</v>
+        <v>3.553149848071311</v>
       </c>
       <c r="I43" t="n">
         <v>7.857823052148743</v>
@@ -2679,16 +2679,16 @@
         <v>30.6778780234648</v>
       </c>
       <c r="K43" t="n">
-        <v>7.857823052148692</v>
+        <v>7.85782305214873</v>
       </c>
       <c r="L43" t="n">
-        <v>30.67787802346382</v>
+        <v>30.6778780234642</v>
       </c>
       <c r="M43" t="n">
-        <v>3.713774329390727e-28</v>
+        <v>5.386184669167118e-29</v>
       </c>
       <c r="N43" t="n">
-        <v>1.343283321921925e-13</v>
+        <v>5.497499298777015e-14</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000321199999987698</v>
+        <v>0.0001949999999979468</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>29.99999999999589</v>
+        <v>30.00000000001126</v>
       </c>
       <c r="G44" t="n">
-        <v>67.41722139252416</v>
+        <v>67.41722139252519</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40857167691671</v>
+        <v>14.40857167692603</v>
       </c>
       <c r="I44" t="n">
         <v>26.73093662596029</v>
@@ -2731,16 +2731,16 @@
         <v>38.09464111448521</v>
       </c>
       <c r="K44" t="n">
-        <v>26.73093662596001</v>
+        <v>26.73093662596094</v>
       </c>
       <c r="L44" t="n">
-        <v>38.09464111448161</v>
+        <v>38.09464111450362</v>
       </c>
       <c r="M44" t="n">
-        <v>1.254792511452518e-26</v>
+        <v>1.015091135120573e-25</v>
       </c>
       <c r="N44" t="n">
-        <v>6.526414519856666e-13</v>
+        <v>2.191746578924039e-12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003073999999969601</v>
+        <v>0.0002392000000028816</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.99999999999972</v>
+        <v>30.00000000000032</v>
       </c>
       <c r="G45" t="n">
-        <v>20.70982195016001</v>
+        <v>20.70982195015959</v>
       </c>
       <c r="H45" t="n">
-        <v>10.30879847135373</v>
+        <v>10.30879847135453</v>
       </c>
       <c r="I45" t="n">
         <v>8.101473937905466</v>
@@ -2783,16 +2783,16 @@
         <v>39.34753971841504</v>
       </c>
       <c r="K45" t="n">
-        <v>8.101473937905439</v>
+        <v>8.101473937905491</v>
       </c>
       <c r="L45" t="n">
-        <v>39.34753971841631</v>
+        <v>39.34753971841786</v>
       </c>
       <c r="M45" t="n">
-        <v>9.425823171042455e-29</v>
+        <v>6.42571831031637e-28</v>
       </c>
       <c r="N45" t="n">
-        <v>7.659247538309763e-14</v>
+        <v>3.243148600480317e-13</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003370999999958713</v>
+        <v>0.0001991000000032273</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.99999999999977</v>
+        <v>30.00000000000023</v>
       </c>
       <c r="G46" t="n">
-        <v>150.2715867598179</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="H46" t="n">
-        <v>4.257553252438467</v>
+        <v>4.2575532524385</v>
       </c>
       <c r="I46" t="n">
         <v>9.169296382417432</v>
@@ -2835,16 +2835,16 @@
         <v>23.24401613042153</v>
       </c>
       <c r="K46" t="n">
-        <v>9.169296382417407</v>
+        <v>9.169296382417469</v>
       </c>
       <c r="L46" t="n">
-        <v>23.24401613042083</v>
+        <v>23.24401613042131</v>
       </c>
       <c r="M46" t="n">
-        <v>1.640093231761387e-28</v>
+        <v>1.263060304919689e-28</v>
       </c>
       <c r="N46" t="n">
-        <v>1.013114174771018e-13</v>
+        <v>6.063857528731143e-14</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003398000000061074</v>
+        <v>0.0002054999999998586</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>29.99999999999997</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="G47" t="n">
-        <v>178.022072425608</v>
+        <v>178.0220724256077</v>
       </c>
       <c r="H47" t="n">
-        <v>9.594536722136652</v>
+        <v>9.594536722136297</v>
       </c>
       <c r="I47" t="n">
         <v>5.639587406824457</v>
@@ -2887,16 +2887,16 @@
         <v>15.9542760494317</v>
       </c>
       <c r="K47" t="n">
-        <v>5.639587406824457</v>
+        <v>5.639587406824483</v>
       </c>
       <c r="L47" t="n">
-        <v>15.95427604943379</v>
+        <v>15.9542760494342</v>
       </c>
       <c r="M47" t="n">
-        <v>2.962401568041914e-29</v>
+        <v>4.591722430464967e-28</v>
       </c>
       <c r="N47" t="n">
-        <v>2.330091516123067e-13</v>
+        <v>3.83924605267017e-13</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003102999999953227</v>
+        <v>0.000199299999998459</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>30.00000000000384</v>
+        <v>30.00000000000346</v>
       </c>
       <c r="G48" t="n">
-        <v>141.0898231450329</v>
+        <v>141.0898231450317</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61800447263433</v>
+        <v>10.61800447263404</v>
       </c>
       <c r="I48" t="n">
         <v>27.70526304933168</v>
@@ -2939,16 +2939,16 @@
         <v>19.73114991147893</v>
       </c>
       <c r="K48" t="n">
-        <v>27.70526304933207</v>
+        <v>27.70526304933196</v>
       </c>
       <c r="L48" t="n">
-        <v>19.73114991148281</v>
+        <v>19.73114991148284</v>
       </c>
       <c r="M48" t="n">
-        <v>2.349184443457239e-26</v>
+        <v>2.07077255790799e-26</v>
       </c>
       <c r="N48" t="n">
-        <v>8.520741674883076e-13</v>
+        <v>7.868457027529331e-13</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003213999999900352</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>29.99999999999981</v>
+        <v>30.00000000000013</v>
       </c>
       <c r="G49" t="n">
-        <v>20.42792494085695</v>
+        <v>20.42792494085671</v>
       </c>
       <c r="H49" t="n">
-        <v>14.69379713323725</v>
+        <v>14.69379713323787</v>
       </c>
       <c r="I49" t="n">
         <v>9.471004277713373</v>
@@ -2991,16 +2991,16 @@
         <v>44.51408920100896</v>
       </c>
       <c r="K49" t="n">
-        <v>9.471004277713361</v>
+        <v>9.471004277713373</v>
       </c>
       <c r="L49" t="n">
-        <v>44.5140892010098</v>
+        <v>44.51408920101086</v>
       </c>
       <c r="M49" t="n">
-        <v>8.29472439051736e-29</v>
+        <v>1.637400139426804e-28</v>
       </c>
       <c r="N49" t="n">
-        <v>7.109041205633122e-14</v>
+        <v>1.421937414881381e-13</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003200000000020964</v>
+        <v>0.0002526000000031559</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>29.99999999999988</v>
+        <v>30.00000000000004</v>
       </c>
       <c r="G50" t="n">
-        <v>3.148248767607447</v>
+        <v>3.148248767607485</v>
       </c>
       <c r="H50" t="n">
-        <v>13.69887920616346</v>
+        <v>13.69887920616318</v>
       </c>
       <c r="I50" t="n">
         <v>2.710210794565153</v>
@@ -3046,13 +3046,13 @@
         <v>2.710210794565153</v>
       </c>
       <c r="L50" t="n">
-        <v>43.84652687772756</v>
+        <v>43.84652687772739</v>
       </c>
       <c r="M50" t="n">
-        <v>5.817079442700487e-29</v>
+        <v>2.181404791012683e-29</v>
       </c>
       <c r="N50" t="n">
-        <v>1.172952908925874e-13</v>
+        <v>5.8558161646011e-14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0002089000000040642</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>29.99999999999858</v>
+        <v>29.99999999999849</v>
       </c>
       <c r="G51" t="n">
-        <v>54.1736020540657</v>
+        <v>54.17360205406532</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964741983541177</v>
+        <v>5.964741983541195</v>
       </c>
       <c r="I51" t="n">
         <v>12.45544517658499</v>
@@ -3098,13 +3098,13 @@
         <v>12.45544517658487</v>
       </c>
       <c r="L51" t="n">
-        <v>32.33427654125516</v>
+        <v>32.33427654125514</v>
       </c>
       <c r="M51" t="n">
-        <v>2.592370681270133e-27</v>
+        <v>2.742914542773355e-27</v>
       </c>
       <c r="N51" t="n">
-        <v>4.227697948067286e-13</v>
+        <v>4.068419527899345e-13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003109999999963975</v>
+        <v>0.0002348000000012007</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>30.0000000000028</v>
+        <v>29.99999999999926</v>
       </c>
       <c r="G52" t="n">
-        <v>89.02829619683942</v>
+        <v>89.02829619684407</v>
       </c>
       <c r="H52" t="n">
-        <v>5.73699725339296</v>
+        <v>5.736997253391813</v>
       </c>
       <c r="I52" t="n">
         <v>16.32338387411448</v>
@@ -3147,16 +3147,16 @@
         <v>28.65547033479784</v>
       </c>
       <c r="K52" t="n">
-        <v>16.32338387411471</v>
+        <v>16.32338387411441</v>
       </c>
       <c r="L52" t="n">
-        <v>28.65547033480223</v>
+        <v>28.65547033479789</v>
       </c>
       <c r="M52" t="n">
-        <v>1.081895983572253e-26</v>
+        <v>7.204021995011018e-28</v>
       </c>
       <c r="N52" t="n">
-        <v>8.257892522969414e-13</v>
+        <v>1.264468040938573e-13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0007334000000014385</v>
+        <v>0.0002109000000061201</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>30.00000000000016</v>
+        <v>29.99999999999893</v>
       </c>
       <c r="G53" t="n">
-        <v>121.6316547906348</v>
+        <v>121.6316547906434</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536546186435276</v>
+        <v>3.536546186435222</v>
       </c>
       <c r="I53" t="n">
         <v>10.7663770508881</v>
@@ -3199,16 +3199,16 @@
         <v>25.60870945161991</v>
       </c>
       <c r="K53" t="n">
-        <v>10.76637705088812</v>
+        <v>10.76637705088799</v>
       </c>
       <c r="L53" t="n">
-        <v>25.60870945161867</v>
+        <v>25.60870945161688</v>
       </c>
       <c r="M53" t="n">
-        <v>3.395989433909867e-28</v>
+        <v>2.054290832820339e-27</v>
       </c>
       <c r="N53" t="n">
-        <v>2.488568956486404e-13</v>
+        <v>4.186113546727231e-13</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003253000000000839</v>
+        <v>0.0003646999999986633</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>29.99999999999944</v>
+        <v>30.00000000000071</v>
       </c>
       <c r="G54" t="n">
-        <v>148.1598613277659</v>
+        <v>148.1598613277631</v>
       </c>
       <c r="H54" t="n">
-        <v>3.313415778838496</v>
+        <v>3.313415778838618</v>
       </c>
       <c r="I54" t="n">
         <v>7.752335685709725</v>
@@ -3251,16 +3251,16 @@
         <v>24.22727636912567</v>
       </c>
       <c r="K54" t="n">
-        <v>7.752335685709649</v>
+        <v>7.752335685709814</v>
       </c>
       <c r="L54" t="n">
-        <v>24.22727636912705</v>
+        <v>24.22727636912832</v>
       </c>
       <c r="M54" t="n">
-        <v>8.388982622227785e-28</v>
+        <v>8.927601089144496e-28</v>
       </c>
       <c r="N54" t="n">
-        <v>2.659564105128738e-13</v>
+        <v>3.752525012268069e-13</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000332100000008495</v>
+        <v>0.0002172000000015828</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>30.00000000000049</v>
+        <v>29.99999999999882</v>
       </c>
       <c r="G55" t="n">
-        <v>152.3992332978247</v>
+        <v>152.3992332978243</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733986483180727</v>
+        <v>9.73398648317991</v>
       </c>
       <c r="I55" t="n">
         <v>21.12954030412948</v>
@@ -3303,16 +3303,16 @@
         <v>18.25980426170813</v>
       </c>
       <c r="K55" t="n">
-        <v>21.12954030412958</v>
+        <v>21.1295403041293</v>
       </c>
       <c r="L55" t="n">
-        <v>18.25980426170977</v>
+        <v>18.25980426170891</v>
       </c>
       <c r="M55" t="n">
-        <v>1.47743045475254e-27</v>
+        <v>3.345897916486614e-27</v>
       </c>
       <c r="N55" t="n">
-        <v>2.748222909179461e-13</v>
+        <v>2.478566466679899e-13</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003260999999952219</v>
+        <v>0.0001961000000036961</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>30.0000000000019</v>
+        <v>30.00000000000025</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63293408533895</v>
+        <v>75.63293408534008</v>
       </c>
       <c r="H56" t="n">
-        <v>7.35887396358173</v>
+        <v>7.358873963581058</v>
       </c>
       <c r="I56" t="n">
         <v>18.20214824947928</v>
@@ -3355,16 +3355,16 @@
         <v>31.1326825899254</v>
       </c>
       <c r="K56" t="n">
-        <v>18.20214824947944</v>
+        <v>18.20214824947932</v>
       </c>
       <c r="L56" t="n">
-        <v>31.13268258992667</v>
+        <v>31.13268258992451</v>
       </c>
       <c r="M56" t="n">
-        <v>3.994933169121251e-27</v>
+        <v>1.605083031411801e-28</v>
       </c>
       <c r="N56" t="n">
-        <v>3.50816539851584e-13</v>
+        <v>8.480770732073617e-14</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003231999999968593</v>
+        <v>0.0002117999999953213</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>29.99999999999922</v>
+        <v>30.00000000000092</v>
       </c>
       <c r="G57" t="n">
-        <v>16.75949160093412</v>
+        <v>16.75949160093456</v>
       </c>
       <c r="H57" t="n">
-        <v>14.65987103987715</v>
+        <v>14.65987103987822</v>
       </c>
       <c r="I57" t="n">
         <v>8.034645537807528</v>
@@ -3407,16 +3407,16 @@
         <v>44.66670492114711</v>
       </c>
       <c r="K57" t="n">
-        <v>8.034645537807464</v>
+        <v>8.034645537807592</v>
       </c>
       <c r="L57" t="n">
-        <v>44.66670492114707</v>
+        <v>44.66670492115001</v>
       </c>
       <c r="M57" t="n">
-        <v>4.349344120352447e-28</v>
+        <v>8.693302056035726e-28</v>
       </c>
       <c r="N57" t="n">
-        <v>7.51154282761152e-14</v>
+        <v>2.560902036671861e-13</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003228000000063957</v>
+        <v>0.0002086000000005583</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>30.00000000000018</v>
+        <v>29.99999999999961</v>
       </c>
       <c r="G58" t="n">
-        <v>177.1545330976638</v>
+        <v>177.1545330976639</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000947192175993</v>
+        <v>7.000947192175575</v>
       </c>
       <c r="I58" t="n">
         <v>4.777926150988158</v>
@@ -3459,16 +3459,16 @@
         <v>19.05908889727014</v>
       </c>
       <c r="K58" t="n">
-        <v>4.777926150988183</v>
+        <v>4.777926150988106</v>
       </c>
       <c r="L58" t="n">
-        <v>19.05908889727204</v>
+        <v>19.05908889727198</v>
       </c>
       <c r="M58" t="n">
-        <v>9.291168554313277e-29</v>
+        <v>3.137452569789846e-28</v>
       </c>
       <c r="N58" t="n">
-        <v>2.284967383576215e-13</v>
+        <v>2.710765523109672e-13</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002974999999878492</v>
+        <v>0.000198399999995047</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>30.0000000000002</v>
+        <v>29.9999999999998</v>
       </c>
       <c r="G59" t="n">
-        <v>15.72293572239109</v>
+        <v>15.72293572239093</v>
       </c>
       <c r="H59" t="n">
-        <v>5.765725194621114</v>
+        <v>5.76572519462093</v>
       </c>
       <c r="I59" t="n">
         <v>5.111782853534632</v>
@@ -3511,16 +3511,16 @@
         <v>34.17956701829482</v>
       </c>
       <c r="K59" t="n">
-        <v>5.111782853534658</v>
+        <v>5.11178285353462</v>
       </c>
       <c r="L59" t="n">
-        <v>34.17956701829306</v>
+        <v>34.17956701829245</v>
       </c>
       <c r="M59" t="n">
-        <v>2.151780775332263e-28</v>
+        <v>7.109763763300596e-29</v>
       </c>
       <c r="N59" t="n">
-        <v>2.670153022150274e-13</v>
+        <v>2.138879042074479e-13</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003256999999905474</v>
+        <v>0.0002349999999964325</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>30.00000000000297</v>
+        <v>29.99999999999725</v>
       </c>
       <c r="G60" t="n">
-        <v>65.71900494408412</v>
+        <v>65.71900494408617</v>
       </c>
       <c r="H60" t="n">
-        <v>8.41447099072135</v>
+        <v>8.414470990718788</v>
       </c>
       <c r="I60" t="n">
         <v>18.21010211320113</v>
@@ -3563,16 +3563,16 @@
         <v>33.19847585386613</v>
       </c>
       <c r="K60" t="n">
-        <v>18.21010211320134</v>
+        <v>18.21010211320094</v>
       </c>
       <c r="L60" t="n">
-        <v>33.19847585387008</v>
+        <v>33.19847585386231</v>
       </c>
       <c r="M60" t="n">
-        <v>9.281204112675319e-27</v>
+        <v>8.373362686687201e-27</v>
       </c>
       <c r="N60" t="n">
-        <v>6.598150793234296e-13</v>
+        <v>6.488564647496097e-13</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003011999999955606</v>
+        <v>0.0001871000000051026</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>29.99999999999989</v>
+        <v>30.00000000000061</v>
       </c>
       <c r="G61" t="n">
-        <v>166.3263208033965</v>
+        <v>166.3263208033964</v>
       </c>
       <c r="H61" t="n">
-        <v>4.894446966417443</v>
+        <v>4.894446966417703</v>
       </c>
       <c r="I61" t="n">
         <v>6.732400721077228</v>
@@ -3615,16 +3615,16 @@
         <v>21.82727400816668</v>
       </c>
       <c r="K61" t="n">
-        <v>6.732400721077216</v>
+        <v>6.732400721077317</v>
       </c>
       <c r="L61" t="n">
-        <v>21.82727400816636</v>
+        <v>21.82727400816678</v>
       </c>
       <c r="M61" t="n">
-        <v>4.82063527890457e-29</v>
+        <v>7.618758214536889e-28</v>
       </c>
       <c r="N61" t="n">
-        <v>5.72276813867986e-14</v>
+        <v>1.355070453818114e-13</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003086999999908357</v>
+        <v>0.0001895999999987907</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>29.99999999999999</v>
+        <v>29.99999999999885</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15719940839169</v>
+        <v>54.15719940839311</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243349796102501</v>
+        <v>5.243349796102019</v>
       </c>
       <c r="I62" t="n">
         <v>11.41155827121607</v>
@@ -3667,16 +3667,16 @@
         <v>31.69457505163562</v>
       </c>
       <c r="K62" t="n">
-        <v>11.41155827121607</v>
+        <v>11.41155827121597</v>
       </c>
       <c r="L62" t="n">
-        <v>31.69457505163481</v>
+        <v>31.69457505163317</v>
       </c>
       <c r="M62" t="n">
-        <v>2.908539721350243e-29</v>
+        <v>1.90994108368666e-27</v>
       </c>
       <c r="N62" t="n">
-        <v>6.753695587245947e-14</v>
+        <v>4.471353140631573e-13</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003375999999946089</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>30.00000000000062</v>
+        <v>30.0000000000007</v>
       </c>
       <c r="G63" t="n">
-        <v>148.4045056643909</v>
+        <v>148.4045056643893</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176196789966604</v>
+        <v>5.176196789966472</v>
       </c>
       <c r="I63" t="n">
         <v>11.32528329067774</v>
@@ -3722,13 +3722,13 @@
         <v>11.32528329067783</v>
       </c>
       <c r="L63" t="n">
-        <v>22.53166860081213</v>
+        <v>22.53166860081243</v>
       </c>
       <c r="M63" t="n">
-        <v>7.958087848694416e-28</v>
+        <v>9.80285609788415e-28</v>
       </c>
       <c r="N63" t="n">
-        <v>1.865761993670055e-13</v>
+        <v>1.762606761503421e-13</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003293999999982589</v>
+        <v>0.0001876000000038403</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>29.99999999999974</v>
+        <v>29.99999999999998</v>
       </c>
       <c r="G64" t="n">
-        <v>6.075847876177328</v>
+        <v>6.075847876177442</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869290095587088</v>
+        <v>8.869290095587226</v>
       </c>
       <c r="I64" t="n">
         <v>3.462135242408604</v>
@@ -3771,16 +3771,16 @@
         <v>38.03641865270881</v>
       </c>
       <c r="K64" t="n">
-        <v>3.462135242408591</v>
+        <v>3.462135242408604</v>
       </c>
       <c r="L64" t="n">
-        <v>38.03641865270833</v>
+        <v>38.03641865270874</v>
       </c>
       <c r="M64" t="n">
-        <v>7.271349303375607e-29</v>
+        <v>4.33587865867953e-29</v>
       </c>
       <c r="N64" t="n">
-        <v>4.565212659428134e-14</v>
+        <v>6.411833430807956e-14</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.0002404999999967572</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>30.00000000000104</v>
+        <v>30.00000000000196</v>
       </c>
       <c r="G65" t="n">
-        <v>99.70938405010703</v>
+        <v>99.70938405010546</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754974724464742</v>
+        <v>7.754974724465105</v>
       </c>
       <c r="I65" t="n">
         <v>21.83479548908128</v>
@@ -3823,16 +3823,16 @@
         <v>27.80920715278775</v>
       </c>
       <c r="K65" t="n">
-        <v>21.83479548908142</v>
+        <v>21.83479548908148</v>
       </c>
       <c r="L65" t="n">
-        <v>27.80920715278716</v>
+        <v>27.80920715278835</v>
       </c>
       <c r="M65" t="n">
-        <v>1.897283549714117e-27</v>
+        <v>4.677362766704725e-27</v>
       </c>
       <c r="N65" t="n">
-        <v>2.178427435042283e-13</v>
+        <v>3.158329096119916e-13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0006100000000088812</v>
+        <v>0.0001883000000049151</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>29.99999999999971</v>
+        <v>30.00000000000541</v>
       </c>
       <c r="G66" t="n">
-        <v>68.23773457808018</v>
+        <v>68.23773457807768</v>
       </c>
       <c r="H66" t="n">
-        <v>9.805178006155016</v>
+        <v>9.805178006157954</v>
       </c>
       <c r="I66" t="n">
         <v>20.8613366628729</v>
@@ -3875,16 +3875,16 @@
         <v>33.97314475533167</v>
       </c>
       <c r="K66" t="n">
-        <v>20.86133666287293</v>
+        <v>20.86133666287328</v>
       </c>
       <c r="L66" t="n">
-        <v>33.97314475533027</v>
+        <v>33.97314475533837</v>
       </c>
       <c r="M66" t="n">
-        <v>1.016911665538752e-27</v>
+        <v>2.888099150530754e-26</v>
       </c>
       <c r="N66" t="n">
-        <v>2.046367510625548e-13</v>
+        <v>1.110623734668477e-12</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>29.99999999999957</v>
+        <v>30.00000000000068</v>
       </c>
       <c r="G67" t="n">
-        <v>39.35610902649671</v>
+        <v>39.35610902649464</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376832634030886</v>
+        <v>3.376832634031387</v>
       </c>
       <c r="I67" t="n">
         <v>6.987251659285303</v>
@@ -3927,16 +3927,16 @@
         <v>30.74521447866422</v>
       </c>
       <c r="K67" t="n">
-        <v>6.987251659285252</v>
+        <v>6.98725165928538</v>
       </c>
       <c r="L67" t="n">
-        <v>30.74521447866195</v>
+        <v>30.74521447866364</v>
       </c>
       <c r="M67" t="n">
-        <v>2.631151210888137e-28</v>
+        <v>9.832480113564572e-28</v>
       </c>
       <c r="N67" t="n">
-        <v>2.064059821224938e-13</v>
+        <v>4.252226546852369e-13</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0001978999999963094</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>29.99999999999973</v>
       </c>
       <c r="G68" t="n">
-        <v>27.77176406362926</v>
+        <v>27.77176406363071</v>
       </c>
       <c r="H68" t="n">
-        <v>4.604394728400869</v>
+        <v>4.604394728400457</v>
       </c>
       <c r="I68" t="n">
         <v>6.619109501712943</v>
@@ -3979,16 +3979,16 @@
         <v>32.48901841149885</v>
       </c>
       <c r="K68" t="n">
-        <v>6.619109501712943</v>
+        <v>6.619109501712918</v>
       </c>
       <c r="L68" t="n">
-        <v>32.48901841149799</v>
+        <v>32.48901841149721</v>
       </c>
       <c r="M68" t="n">
-        <v>3.689536498379475e-29</v>
+        <v>2.795429843297734e-28</v>
       </c>
       <c r="N68" t="n">
-        <v>9.649014338738319e-14</v>
+        <v>2.989200417108579e-13</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.000202999999999065</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>29.99999999999901</v>
+        <v>30.00000000000019</v>
       </c>
       <c r="G69" t="n">
-        <v>98.25325738829608</v>
+        <v>98.25325738829542</v>
       </c>
       <c r="H69" t="n">
-        <v>13.30627932709576</v>
+        <v>13.30627932709647</v>
       </c>
       <c r="I69" t="n">
         <v>34.07554230545824</v>
@@ -4031,16 +4031,16 @@
         <v>30.29280265083704</v>
       </c>
       <c r="K69" t="n">
-        <v>34.07554230545818</v>
+        <v>34.07554230545821</v>
       </c>
       <c r="L69" t="n">
-        <v>30.29280265083554</v>
+        <v>30.29280265083707</v>
       </c>
       <c r="M69" t="n">
-        <v>9.083127171466698e-28</v>
+        <v>8.048306441902966e-28</v>
       </c>
       <c r="N69" t="n">
-        <v>2.005777007735647e-13</v>
+        <v>5.784771665294012e-14</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003299999999910597</v>
+        <v>0.0002329999999943766</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>29.99999999999959</v>
+        <v>30.00000000000053</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68686459072172</v>
+        <v>46.68686459071946</v>
       </c>
       <c r="H70" t="n">
-        <v>3.52033261394255</v>
+        <v>3.520332613942967</v>
       </c>
       <c r="I70" t="n">
         <v>7.978481920009612</v>
@@ -4083,16 +4083,16 @@
         <v>30.5774947170148</v>
       </c>
       <c r="K70" t="n">
-        <v>7.978481920009561</v>
+        <v>7.978481920009663</v>
       </c>
       <c r="L70" t="n">
-        <v>30.57749471701578</v>
+        <v>30.5774947170172</v>
       </c>
       <c r="M70" t="n">
-        <v>4.036945409540754e-28</v>
+        <v>4.273937534984107e-28</v>
       </c>
       <c r="N70" t="n">
-        <v>2.946394887515287e-13</v>
+        <v>2.698211529573745e-13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002997000000135586</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="71">
@@ -4120,31 +4120,31 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>29.99999999999904</v>
+        <v>30.00000000000511</v>
       </c>
       <c r="G71" t="n">
-        <v>53.32484910103808</v>
+        <v>53.32484910103724</v>
       </c>
       <c r="H71" t="n">
-        <v>12.70881258807935</v>
+        <v>12.70881258808317</v>
       </c>
       <c r="I71" t="n">
-        <v>20.1658829375731</v>
+        <v>20.16588293757309</v>
       </c>
       <c r="J71" t="n">
         <v>38.87559435981993</v>
       </c>
       <c r="K71" t="n">
-        <v>20.16588293757304</v>
+        <v>20.16588293757338</v>
       </c>
       <c r="L71" t="n">
-        <v>38.87559435981627</v>
+        <v>38.87559435982593</v>
       </c>
       <c r="M71" t="n">
-        <v>8.450923745923208e-28</v>
+        <v>2.519010846076077e-26</v>
       </c>
       <c r="N71" t="n">
-        <v>2.853797080428367e-13</v>
+        <v>9.871657335368186e-13</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0002088999999969587</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>29.99999999999667</v>
+        <v>30.00000000000065</v>
       </c>
       <c r="G72" t="n">
-        <v>166.946496951414</v>
+        <v>166.9464969514124</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46911553290905</v>
+        <v>13.46911553291093</v>
       </c>
       <c r="I72" t="n">
         <v>22.50110910593897</v>
@@ -4187,16 +4187,16 @@
         <v>12.59736678041878</v>
       </c>
       <c r="K72" t="n">
-        <v>22.50110910593834</v>
+        <v>22.50110910593911</v>
       </c>
       <c r="L72" t="n">
-        <v>12.597366780416</v>
+        <v>12.59736678041811</v>
       </c>
       <c r="M72" t="n">
-        <v>3.449743556908155e-26</v>
+        <v>1.664061753539181e-27</v>
       </c>
       <c r="N72" t="n">
-        <v>8.461674771990489e-13</v>
+        <v>1.943356997567766e-13</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003331000000059703</v>
+        <v>0.0001913000000044462</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>30.00000000000025</v>
+        <v>29.99999999999928</v>
       </c>
       <c r="G73" t="n">
-        <v>33.40354946733792</v>
+        <v>33.40354946733747</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639191636504702</v>
+        <v>7.63919163650438</v>
       </c>
       <c r="I73" t="n">
         <v>10.06238009975766</v>
@@ -4239,16 +4239,16 @@
         <v>35.58374545764129</v>
       </c>
       <c r="K73" t="n">
-        <v>10.06238009975768</v>
+        <v>10.06238009975761</v>
       </c>
       <c r="L73" t="n">
-        <v>35.58374545764104</v>
+        <v>35.58374545763976</v>
       </c>
       <c r="M73" t="n">
-        <v>1.51351789203596e-28</v>
+        <v>7.236339103026022e-28</v>
       </c>
       <c r="N73" t="n">
-        <v>8.574636755802996e-14</v>
+        <v>2.466084092255064e-13</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002944999999954234</v>
+        <v>0.0001889999999988845</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>30.00000000000055</v>
+        <v>29.99999999999899</v>
       </c>
       <c r="G74" t="n">
-        <v>19.21287640595589</v>
+        <v>19.21287640595606</v>
       </c>
       <c r="H74" t="n">
-        <v>11.21211159934475</v>
+        <v>11.21211159934331</v>
       </c>
       <c r="I74" t="n">
         <v>7.949461920862264</v>
@@ -4291,16 +4291,16 @@
         <v>40.47776009458681</v>
       </c>
       <c r="K74" t="n">
-        <v>7.949461920862302</v>
+        <v>7.949461920862188</v>
       </c>
       <c r="L74" t="n">
-        <v>40.4777600945858</v>
+        <v>40.47776009458256</v>
       </c>
       <c r="M74" t="n">
-        <v>4.384354320702033e-28</v>
+        <v>1.455077788375497e-27</v>
       </c>
       <c r="N74" t="n">
-        <v>1.613692068588794e-13</v>
+        <v>4.09745260485841e-13</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002884000000022979</v>
+        <v>0.0002457000000006815</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>30.00000000000188</v>
+        <v>30.00000000000588</v>
       </c>
       <c r="G75" t="n">
-        <v>115.6841848414945</v>
+        <v>115.6841848414924</v>
       </c>
       <c r="H75" t="n">
-        <v>9.463451171628147</v>
+        <v>9.463451171629787</v>
       </c>
       <c r="I75" t="n">
         <v>26.91838834236455</v>
@@ -4343,16 +4343,16 @@
         <v>25.19117466107735</v>
       </c>
       <c r="K75" t="n">
-        <v>26.91838834236476</v>
+        <v>26.9183883423651</v>
       </c>
       <c r="L75" t="n">
-        <v>25.1911746610793</v>
+        <v>25.19117466108331</v>
       </c>
       <c r="M75" t="n">
-        <v>4.903043904342827e-27</v>
+        <v>4.261576241168369e-26</v>
       </c>
       <c r="N75" t="n">
-        <v>3.916461469889341e-13</v>
+        <v>1.216628477059458e-12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0006187000000039689</v>
+        <v>0.0001924000000030901</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>30.00000000000174</v>
+        <v>29.99999999999776</v>
       </c>
       <c r="G76" t="n">
-        <v>36.39641281744369</v>
+        <v>36.39641281744471</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41457124932773</v>
+        <v>12.41457124932465</v>
       </c>
       <c r="I76" t="n">
         <v>14.26388074475133</v>
@@ -4395,16 +4395,16 @@
         <v>40.62758235916512</v>
       </c>
       <c r="K76" t="n">
-        <v>14.26388074475145</v>
+        <v>14.26388074475122</v>
       </c>
       <c r="L76" t="n">
-        <v>40.62758235916861</v>
+        <v>40.62758235916122</v>
       </c>
       <c r="M76" t="n">
-        <v>2.634113612456179e-27</v>
+        <v>7.936004491550831e-27</v>
       </c>
       <c r="N76" t="n">
-        <v>3.783235600764565e-13</v>
+        <v>6.393124981974609e-13</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003174000000001342</v>
+        <v>0.0001943000000039774</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>29.99999999999908</v>
+        <v>30.00000000000016</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4092396214671</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791570731073113</v>
+        <v>3.791570731073344</v>
       </c>
       <c r="I77" t="n">
         <v>12.00268982686304</v>
@@ -4447,16 +4447,16 @@
         <v>26.99609284033786</v>
       </c>
       <c r="K77" t="n">
-        <v>12.00268982686294</v>
+        <v>12.00268982686305</v>
       </c>
       <c r="L77" t="n">
-        <v>26.99609284033632</v>
+        <v>26.9960928403376</v>
       </c>
       <c r="M77" t="n">
-        <v>1.409295218687576e-27</v>
+        <v>6.22104329288802e-29</v>
       </c>
       <c r="N77" t="n">
-        <v>3.252192268203213e-13</v>
+        <v>3.885091042430665e-14</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.00029750000000206</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>30.00000000000003</v>
+        <v>29.99999999999615</v>
       </c>
       <c r="G78" t="n">
-        <v>55.94936395614369</v>
+        <v>55.94936395614373</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82784664862629</v>
+        <v>12.827846648624</v>
       </c>
       <c r="I78" t="n">
         <v>21.14464081260298</v>
@@ -4499,16 +4499,16 @@
         <v>38.60175053192231</v>
       </c>
       <c r="K78" t="n">
-        <v>21.14464081260297</v>
+        <v>21.14464081260272</v>
       </c>
       <c r="L78" t="n">
-        <v>38.60175053192002</v>
+        <v>38.60175053191413</v>
       </c>
       <c r="M78" t="n">
-        <v>8.72561916405073e-29</v>
+        <v>1.244289451347642e-26</v>
       </c>
       <c r="N78" t="n">
-        <v>1.238735052032917e-13</v>
+        <v>8.517116976648424e-13</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002957999999892991</v>
+        <v>0.0001931000000041649</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>30.00000000000187</v>
+        <v>30.0000000000011</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4396257238509</v>
+        <v>165.4396257238519</v>
       </c>
       <c r="H79" t="n">
-        <v>10.70634719908667</v>
+        <v>10.7063471990866</v>
       </c>
       <c r="I79" t="n">
         <v>16.40253997268591</v>
@@ -4551,16 +4551,16 @@
         <v>15.58284333545443</v>
       </c>
       <c r="K79" t="n">
-        <v>16.40253997268617</v>
+        <v>16.40253997268609</v>
       </c>
       <c r="L79" t="n">
-        <v>15.58284333545484</v>
+        <v>15.58284333545406</v>
       </c>
       <c r="M79" t="n">
-        <v>9.726372275581983e-27</v>
+        <v>3.344551370319321e-27</v>
       </c>
       <c r="N79" t="n">
-        <v>2.486784514088579e-13</v>
+        <v>1.812360124976541e-13</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003332999999940967</v>
+        <v>0.0002415000000013379</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>29.99999999999977</v>
+        <v>30.00000000000023</v>
       </c>
       <c r="G80" t="n">
-        <v>8.672620950042738</v>
+        <v>8.672620950042903</v>
       </c>
       <c r="H80" t="n">
-        <v>11.17155616641234</v>
+        <v>11.1715561664126</v>
       </c>
       <c r="I80" t="n">
         <v>4.491261423189937</v>
@@ -4603,16 +4603,16 @@
         <v>40.76138943515837</v>
       </c>
       <c r="K80" t="n">
-        <v>4.491261423189911</v>
+        <v>4.491261423189949</v>
       </c>
       <c r="L80" t="n">
-        <v>40.76138943515969</v>
+        <v>40.76138943516045</v>
       </c>
       <c r="M80" t="n">
-        <v>1.117633318852176e-28</v>
+        <v>6.355697909617198e-29</v>
       </c>
       <c r="N80" t="n">
-        <v>1.234921744533953e-13</v>
+        <v>9.125439356603616e-14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0001991999999972904</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>29.99999999999904</v>
+        <v>30.00000000000171</v>
       </c>
       <c r="G81" t="n">
-        <v>90.12026274126889</v>
+        <v>90.12026274126863</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616809111376996</v>
+        <v>8.616809111378052</v>
       </c>
       <c r="I81" t="n">
         <v>22.81548823738686</v>
@@ -4655,16 +4655,16 @@
         <v>29.68449734234962</v>
       </c>
       <c r="K81" t="n">
-        <v>22.81548823738679</v>
+        <v>22.81548823738701</v>
       </c>
       <c r="L81" t="n">
-        <v>29.68449734234832</v>
+        <v>29.68449734235131</v>
       </c>
       <c r="M81" t="n">
-        <v>1.039802950382712e-27</v>
+        <v>3.158458689999598e-27</v>
       </c>
       <c r="N81" t="n">
-        <v>2.063585320277281e-13</v>
+        <v>3.254823193058033e-13</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0001964000000000965</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>30.00000000000642</v>
+        <v>30.000000000002</v>
       </c>
       <c r="G82" t="n">
-        <v>93.9448289700437</v>
+        <v>93.94482897004461</v>
       </c>
       <c r="H82" t="n">
-        <v>11.39287640417926</v>
+        <v>11.39287640417703</v>
       </c>
       <c r="I82" t="n">
         <v>29.25110244472909</v>
@@ -4707,16 +4707,16 @@
         <v>30.30774104493361</v>
       </c>
       <c r="K82" t="n">
-        <v>29.25110244472951</v>
+        <v>29.2511024447292</v>
       </c>
       <c r="L82" t="n">
-        <v>30.30774104494276</v>
+        <v>30.30774104493758</v>
       </c>
       <c r="M82" t="n">
-        <v>4.241862805279218e-26</v>
+        <v>4.917855912183037e-27</v>
       </c>
       <c r="N82" t="n">
-        <v>1.386923572641581e-12</v>
+        <v>5.112047734840064e-13</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003235000000074706</v>
+        <v>0.0002107000000037829</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>29.99999999999675</v>
+        <v>30.00000000000128</v>
       </c>
       <c r="G83" t="n">
-        <v>63.97544120494354</v>
+        <v>63.97544120494083</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090186520270356</v>
+        <v>7.090186520272257</v>
       </c>
       <c r="I83" t="n">
         <v>15.81851978734653</v>
@@ -4759,16 +4759,16 @@
         <v>32.34144758506243</v>
       </c>
       <c r="K83" t="n">
-        <v>15.81851978734628</v>
+        <v>15.81851978734662</v>
       </c>
       <c r="L83" t="n">
-        <v>32.34144758505919</v>
+        <v>32.34144758506537</v>
       </c>
       <c r="M83" t="n">
-        <v>1.181190297948349e-26</v>
+        <v>2.356725101994072e-27</v>
       </c>
       <c r="N83" t="n">
-        <v>7.010891185446588e-13</v>
+        <v>4.407437725789258e-13</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0006399999999899819</v>
+        <v>0.0001991000000032273</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>29.99999999999869</v>
+        <v>29.99999999999822</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54062056424046</v>
+        <v>49.54062056423948</v>
       </c>
       <c r="H84" t="n">
-        <v>10.67076913110264</v>
+        <v>10.67076913110265</v>
       </c>
       <c r="I84" t="n">
         <v>17.00129706224179</v>
@@ -4811,16 +4811,16 @@
         <v>37.32399253950987</v>
       </c>
       <c r="K84" t="n">
-        <v>17.00129706224169</v>
+        <v>17.00129706224164</v>
       </c>
       <c r="L84" t="n">
-        <v>37.3239925395083</v>
+        <v>37.32399253950798</v>
       </c>
       <c r="M84" t="n">
-        <v>1.507054470432959e-27</v>
+        <v>2.841751031452571e-27</v>
       </c>
       <c r="N84" t="n">
-        <v>2.458749114415135e-13</v>
+        <v>2.883816407596289e-13</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003194999999891479</v>
+        <v>0.0002536000000006311</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>30.00000000000144</v>
+        <v>30.00000000000215</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26763687892407</v>
+        <v>46.26763687892504</v>
       </c>
       <c r="H85" t="n">
-        <v>11.20545099685402</v>
+        <v>11.2054509968541</v>
       </c>
       <c r="I85" t="n">
         <v>16.53125344579031</v>
@@ -4863,16 +4863,16 @@
         <v>38.26062136792312</v>
       </c>
       <c r="K85" t="n">
-        <v>16.53125344579038</v>
+        <v>16.53125344579044</v>
       </c>
       <c r="L85" t="n">
-        <v>38.26062136792601</v>
+        <v>38.26062136792666</v>
       </c>
       <c r="M85" t="n">
-        <v>3.32354525010957e-27</v>
+        <v>4.439562713560996e-27</v>
       </c>
       <c r="N85" t="n">
-        <v>4.333170842109019e-13</v>
+        <v>4.678667071225628e-13</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0002534999999994625</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>30.00000000000022</v>
+        <v>29.99999999999997</v>
       </c>
       <c r="G86" t="n">
-        <v>8.287378853667525</v>
+        <v>8.287378853667448</v>
       </c>
       <c r="H86" t="n">
-        <v>7.442907793387267</v>
+        <v>7.442907793387039</v>
       </c>
       <c r="I86" t="n">
         <v>3.881837099353531</v>
@@ -4915,16 +4915,16 @@
         <v>36.30515202144628</v>
       </c>
       <c r="K86" t="n">
-        <v>3.881837099353543</v>
+        <v>3.881837099353518</v>
       </c>
       <c r="L86" t="n">
-        <v>36.30515202144656</v>
+        <v>36.30515202144604</v>
       </c>
       <c r="M86" t="n">
-        <v>8.537102700629881e-29</v>
+        <v>4.82063527890457e-29</v>
       </c>
       <c r="N86" t="n">
-        <v>4.193054408084173e-14</v>
+        <v>6.352605413681406e-14</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0002473999999992316</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>29.99999999999743</v>
+        <v>29.99999999999381</v>
       </c>
       <c r="G87" t="n">
-        <v>111.6672866195878</v>
+        <v>111.6672866195902</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107436823743852</v>
+        <v>9.107436823742391</v>
       </c>
       <c r="I87" t="n">
         <v>25.87965439725306</v>
@@ -4967,16 +4967,16 @@
         <v>25.95106000866057</v>
       </c>
       <c r="K87" t="n">
-        <v>25.87965439725287</v>
+        <v>25.87965439725258</v>
       </c>
       <c r="L87" t="n">
-        <v>25.95106000865722</v>
+        <v>25.95106000865337</v>
       </c>
       <c r="M87" t="n">
-        <v>8.143103292080307e-27</v>
+        <v>4.756027993797911e-26</v>
       </c>
       <c r="N87" t="n">
-        <v>5.896680219470295e-13</v>
+        <v>1.370207507671155e-12</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003142999999994345</v>
+        <v>0.000198500000003321</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>29.99999999999962</v>
+        <v>29.99999999999979</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46925165319937</v>
+        <v>36.46925165319938</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485117248731704</v>
+        <v>5.485117248731767</v>
       </c>
       <c r="I88" t="n">
         <v>8.841399981764416</v>
@@ -5019,16 +5019,16 @@
         <v>33.06978590212768</v>
       </c>
       <c r="K88" t="n">
-        <v>8.841399981764377</v>
+        <v>8.84139998176439</v>
       </c>
       <c r="L88" t="n">
-        <v>33.06978590212802</v>
+        <v>33.06978590212826</v>
       </c>
       <c r="M88" t="n">
-        <v>1.823223510513069e-28</v>
+        <v>9.156513937584098e-29</v>
       </c>
       <c r="N88" t="n">
-        <v>5.917610956395368e-14</v>
+        <v>1.000933143398125e-13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002956999999952359</v>
+        <v>0.0001936999999969657</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>30.00000000000038</v>
+        <v>29.99999999999752</v>
       </c>
       <c r="G89" t="n">
-        <v>118.127553341932</v>
+        <v>118.1275533419325</v>
       </c>
       <c r="H89" t="n">
-        <v>14.45881652295896</v>
+        <v>14.45881652295727</v>
       </c>
       <c r="I89" t="n">
         <v>40.62090861008976</v>
@@ -5071,16 +5071,16 @@
         <v>25.30051964941712</v>
       </c>
       <c r="K89" t="n">
-        <v>40.62090861008978</v>
+        <v>40.62090861008956</v>
       </c>
       <c r="L89" t="n">
-        <v>25.30051964941832</v>
+        <v>25.30051964941556</v>
       </c>
       <c r="M89" t="n">
-        <v>2.406278000950409e-28</v>
+        <v>6.084705493449729e-27</v>
       </c>
       <c r="N89" t="n">
-        <v>1.316754511114972e-13</v>
+        <v>4.125075475571944e-13</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0002375999999983947</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>30.00000000000205</v>
+        <v>29.99999999999945</v>
       </c>
       <c r="G90" t="n">
-        <v>116.559188883543</v>
+        <v>116.5591888835447</v>
       </c>
       <c r="H90" t="n">
-        <v>9.085796258557771</v>
+        <v>9.085796258556746</v>
       </c>
       <c r="I90" t="n">
         <v>25.88603784183202</v>
@@ -5123,16 +5123,16 @@
         <v>25.01898544775609</v>
       </c>
       <c r="K90" t="n">
-        <v>25.8860378418322</v>
+        <v>25.88603784183197</v>
       </c>
       <c r="L90" t="n">
-        <v>25.01898544775773</v>
+        <v>25.0189854477551</v>
       </c>
       <c r="M90" t="n">
-        <v>5.28250061428565e-27</v>
+        <v>5.017231019329169e-28</v>
       </c>
       <c r="N90" t="n">
-        <v>4.046964034147446e-13</v>
+        <v>1.524091573326096e-13</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003387999999944213</v>
+        <v>0.0001897999999940225</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>29.99999999999754</v>
+        <v>30.00000000000095</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94497768439346</v>
+        <v>89.94497768438886</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071245611739211</v>
+        <v>6.071245611740362</v>
       </c>
       <c r="I91" t="n">
         <v>17.15632957635029</v>
@@ -5175,16 +5175,16 @@
         <v>28.66617941202903</v>
       </c>
       <c r="K91" t="n">
-        <v>17.15632957635009</v>
+        <v>17.15632957635037</v>
       </c>
       <c r="L91" t="n">
-        <v>28.66617941202716</v>
+        <v>28.66617941203139</v>
       </c>
       <c r="M91" t="n">
-        <v>8.120481316469806e-27</v>
+        <v>1.224549084535144e-27</v>
       </c>
       <c r="N91" t="n">
-        <v>5.85127838712787e-13</v>
+        <v>3.210313912729373e-13</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003207999999972344</v>
+        <v>0.0001887000000024841</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>30.00000000000047</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54975577790564</v>
+        <v>27.54975577790743</v>
       </c>
       <c r="H92" t="n">
-        <v>4.89222793211326</v>
+        <v>4.892227932112646</v>
       </c>
       <c r="I92" t="n">
         <v>6.799638401444717</v>
@@ -5227,16 +5227,16 @@
         <v>32.8194763419126</v>
       </c>
       <c r="K92" t="n">
-        <v>6.799638401444768</v>
+        <v>6.799638401444717</v>
       </c>
       <c r="L92" t="n">
-        <v>32.81947634191482</v>
+        <v>32.81947634191356</v>
       </c>
       <c r="M92" t="n">
-        <v>4.669822108167891e-28</v>
+        <v>1.020681994807169e-28</v>
       </c>
       <c r="N92" t="n">
-        <v>3.373125277021418e-13</v>
+        <v>1.970347963014597e-13</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002887999999927615</v>
+        <v>0.0001900999999975284</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>30.00000000000041</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="G93" t="n">
-        <v>36.18064730123445</v>
+        <v>36.18064730123317</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948245597906562</v>
+        <v>6.948245597906781</v>
       </c>
       <c r="I93" t="n">
         <v>10.12608089519902</v>
@@ -5279,16 +5279,16 @@
         <v>34.65343846802563</v>
       </c>
       <c r="K93" t="n">
-        <v>10.12608089519905</v>
+        <v>10.12608089519904</v>
       </c>
       <c r="L93" t="n">
-        <v>34.65343846802664</v>
+        <v>34.65343846802674</v>
       </c>
       <c r="M93" t="n">
-        <v>4.190451672612017e-28</v>
+        <v>7.753412831266066e-28</v>
       </c>
       <c r="N93" t="n">
-        <v>2.134045276209413e-13</v>
+        <v>3.216718983536034e-13</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003132000000078961</v>
+        <v>0.0002543999999957691</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>29.99999999999829</v>
+        <v>30.0000000000017</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4584898987734</v>
+        <v>159.4584898987723</v>
       </c>
       <c r="H94" t="n">
-        <v>12.46297880164392</v>
+        <v>12.46297880164557</v>
       </c>
       <c r="I94" t="n">
         <v>25.62795621500346</v>
@@ -5331,16 +5331,16 @@
         <v>14.83878058168517</v>
       </c>
       <c r="K94" t="n">
-        <v>25.6279562150032</v>
+        <v>25.6279562150038</v>
       </c>
       <c r="L94" t="n">
-        <v>14.83878058168365</v>
+        <v>14.83878058168557</v>
       </c>
       <c r="M94" t="n">
-        <v>7.118112349537803e-27</v>
+        <v>9.307327108320781e-27</v>
       </c>
       <c r="N94" t="n">
-        <v>4.100320752695542e-13</v>
+        <v>3.137962718777851e-13</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.000332000000000221</v>
+        <v>0.0002932000000015478</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>29.99999999999953</v>
+        <v>30.00000000000404</v>
       </c>
       <c r="G95" t="n">
-        <v>109.143780799766</v>
+        <v>109.1437807997646</v>
       </c>
       <c r="H95" t="n">
-        <v>10.89013882341356</v>
+        <v>10.89013882341568</v>
       </c>
       <c r="I95" t="n">
         <v>30.33422199235522</v>
@@ -5383,16 +5383,16 @@
         <v>26.76193268396159</v>
       </c>
       <c r="K95" t="n">
-        <v>30.3342219923552</v>
+        <v>30.33422199235555</v>
       </c>
       <c r="L95" t="n">
-        <v>26.76193268396138</v>
+        <v>26.76193268396606</v>
       </c>
       <c r="M95" t="n">
-        <v>3.527950958304461e-28</v>
+        <v>1.780241756853116e-26</v>
       </c>
       <c r="N95" t="n">
-        <v>7.590928570643257e-14</v>
+        <v>8.226054690069441e-13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.000191100000002109</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>29.99999999999443</v>
+        <v>29.99999999999832</v>
       </c>
       <c r="G96" t="n">
-        <v>129.4894415239146</v>
+        <v>129.489441523912</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28665410746149</v>
+        <v>10.28665410746309</v>
       </c>
       <c r="I96" t="n">
         <v>28.70555251722355</v>
@@ -5435,16 +5435,16 @@
         <v>22.27073467156608</v>
       </c>
       <c r="K96" t="n">
-        <v>28.70555251722298</v>
+        <v>28.70555251722331</v>
       </c>
       <c r="L96" t="n">
-        <v>22.2707346715619</v>
+        <v>22.2707346715655</v>
       </c>
       <c r="M96" t="n">
-        <v>4.319531588208608e-26</v>
+        <v>5.899488068138744e-27</v>
       </c>
       <c r="N96" t="n">
-        <v>1.08627093974328e-12</v>
+        <v>3.040539447875837e-13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>29.99999999999968</v>
+        <v>29.99999999999972</v>
       </c>
       <c r="G97" t="n">
-        <v>41.18462776024143</v>
+        <v>41.18462776024433</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288256223490202</v>
+        <v>5.288256223489785</v>
       </c>
       <c r="I97" t="n">
         <v>9.443662727940012</v>
@@ -5487,16 +5487,16 @@
         <v>32.60134686113346</v>
       </c>
       <c r="K97" t="n">
-        <v>9.443662727939975</v>
+        <v>9.443662727939987</v>
       </c>
       <c r="L97" t="n">
-        <v>32.60134686113239</v>
+        <v>32.60134686113183</v>
       </c>
       <c r="M97" t="n">
-        <v>1.510824799701376e-28</v>
+        <v>4.834100740577488e-28</v>
       </c>
       <c r="N97" t="n">
-        <v>8.479027182603229e-14</v>
+        <v>3.38348787471173e-13</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003242000000085454</v>
+        <v>0.0001954000000026213</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>29.99999999999781</v>
+        <v>30.00000000000374</v>
       </c>
       <c r="G98" t="n">
-        <v>38.64364002302843</v>
+        <v>38.6436400230289</v>
       </c>
       <c r="H98" t="n">
-        <v>13.91402845609865</v>
+        <v>13.91402845610249</v>
       </c>
       <c r="I98" t="n">
         <v>16.00737530966048</v>
@@ -5539,16 +5539,16 @@
         <v>42.05525927522663</v>
       </c>
       <c r="K98" t="n">
-        <v>16.00737530966035</v>
+        <v>16.00737530966071</v>
       </c>
       <c r="L98" t="n">
-        <v>42.05525927522052</v>
+        <v>42.05525927523043</v>
       </c>
       <c r="M98" t="n">
-        <v>3.801569139498152e-27</v>
+        <v>1.212726409186322e-26</v>
       </c>
       <c r="N98" t="n">
-        <v>5.163293460346207e-13</v>
+        <v>6.639099355439738e-13</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003025999999977103</v>
+        <v>0.0004133999999993421</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>29.99999999999665</v>
+        <v>30.00000000000247</v>
       </c>
       <c r="G99" t="n">
-        <v>150.6499423676158</v>
+        <v>150.6499423676134</v>
       </c>
       <c r="H99" t="n">
-        <v>14.64283022328214</v>
+        <v>14.64283022328532</v>
       </c>
       <c r="I99" t="n">
         <v>39.03082884889427</v>
@@ -5591,16 +5591,16 @@
         <v>15.53497559712574</v>
       </c>
       <c r="K99" t="n">
-        <v>39.03082884889395</v>
+        <v>39.03082884889455</v>
       </c>
       <c r="L99" t="n">
-        <v>15.53497559712436</v>
+        <v>15.53497559712818</v>
       </c>
       <c r="M99" t="n">
-        <v>1.811670144397706e-26</v>
+        <v>1.009950021853853e-26</v>
       </c>
       <c r="N99" t="n">
-        <v>5.751663592263657e-13</v>
+        <v>5.878785431789753e-13</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003089999999872362</v>
+        <v>0.0002325999999968076</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>30.00000000000244</v>
+        <v>30.00000000000555</v>
       </c>
       <c r="G100" t="n">
-        <v>131.8081046523924</v>
+        <v>131.808104652389</v>
       </c>
       <c r="H100" t="n">
-        <v>9.80626818541162</v>
+        <v>9.806268185412746</v>
       </c>
       <c r="I100" t="n">
         <v>26.96775176704555</v>
@@ -5643,16 +5643,16 @@
         <v>21.92280540344407</v>
       </c>
       <c r="K100" t="n">
-        <v>26.96775176704583</v>
+        <v>26.96775176704603</v>
       </c>
       <c r="L100" t="n">
-        <v>21.92280540344467</v>
+        <v>21.92280540344779</v>
       </c>
       <c r="M100" t="n">
-        <v>8.864582728515244e-27</v>
+        <v>4.486018556332563e-26</v>
       </c>
       <c r="N100" t="n">
-        <v>3.958448594865326e-13</v>
+        <v>1.055814790939107e-12</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0007374000000055503</v>
+        <v>0.0002034999999978027</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>30.00000000000298</v>
+        <v>29.99999999999969</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0101405535401</v>
+        <v>121.0101405535424</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856940790888117</v>
+        <v>8.856940790886879</v>
       </c>
       <c r="I101" t="n">
         <v>25.13702639845252</v>
@@ -5695,16 +5695,16 @@
         <v>24.19989479699868</v>
       </c>
       <c r="K101" t="n">
-        <v>25.13702639845278</v>
+        <v>25.13702639845248</v>
       </c>
       <c r="L101" t="n">
-        <v>24.19989479700127</v>
+        <v>24.19989479699801</v>
       </c>
       <c r="M101" t="n">
-        <v>1.211891550562602e-26</v>
+        <v>2.057522543621839e-28</v>
       </c>
       <c r="N101" t="n">
-        <v>6.170592882348034e-13</v>
+        <v>9.179137594567254e-14</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003496000000069444</v>
+        <v>0.0001869000000027654</v>
       </c>
     </row>
   </sheetData>
